--- a/File/SubSheet.xlsx
+++ b/File/SubSheet.xlsx
@@ -1,49 +1,900 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<x:workbook xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <x:fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <x:workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ĐẠI HỌC\NAM4\RPA\RPA_Final\RPA_Final\RPA_Final\File\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{250248B2-4DF1-4706-A1EE-E0C2F1F07104}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <x:bookViews>
-    <x:workbookView firstSheet="0" activeTab="0"/>
+    <x:workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="0" activeTab="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet name="SubSheet" sheetId="2" r:id="rId2"/>
+    <x:sheet name="SubSheet" sheetId="2" r:id="rId1"/>
   </x:sheets>
   <x:definedNames/>
-  <x:calcPr calcId="125725"/>
+  <x:calcPr calcId="0"/>
 </x:workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:si>
-    <x:t>STT</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Họ và Tên</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Email</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Nội dung</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Yêu cầu chi tiết</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Phân loại yêu cầu</x:t>
+    <x:t>ID</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Date</x:t>
+  </x:si>
+  <x:si>
+    <x:t>From</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Subject</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Body</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sun, 20 Oct 2024 13:37:30 +0000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>"Thùy Dung Trần" &lt;thuydungtran018@gmail.com&gt;</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Yêu cầu hỗ trợ về sản phẩm Máy Rửa Chén Bát Độc Lập Bosch 13 bộ SMS4EKI06E- Series 4, màu inox bạc</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Kính gửi bộ phận hỗ trợ,
+Tôi là Lan Anh. Tôi vừa mua sản phẩm Máy Rửa Chén Bát Độc Lập Bosch 13 bộ SMS4EKI06E- Series 4, màu inox bạc từ hệ thống của quý công ty và gặp một số vấn đề như sau:
+Vấn đề gặp phải:
+  *
+Mô tả vấn đề:
+Tôi gặp phải vấn đề với máy rửa chén bát Bosch 13 bộ SMS4EKI06E mà tôi vừa mua. Cụ thể, khi tôi khởi động máy, nó không bắt đầu quá trình rửa mặc dù đã cài đặt chương trình. Đèn báo lỗi "E1" cũng xuất hiện, điều này có thể cho thấy vấn đề liên quan đến việc cấp nước. Tôi đã kiểm tra nguồn nước và đảm bảo rằng máy được kết nối đúng cách.
+Ngoài ra, tôi còn nhận thấy máy phát ra tiếng ồn lạ trong quá trình hoạt động, và khi rửa xong, chén bát vẫn còn dính lại nhiều vết bẩn.
+Mong quý công ty hướng dẫn tôi cách khắc phục hoặc sắp xếp nhân viên đến kiểm tra máy.
+Tôi mong nhận được sự hỗ trợ từ quý công ty để giải quyết vấn đề này sớm nhất có thể. Quý công ty có thể liên hệ với tôi qua email này hoặc số điện thoại 0123 456 789.
+Rất mong nhận được phản hồi từ quý công ty.
+Trân trọng,
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sun, 20 Oct 2024 13:42:48 +0000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Yêu cầu hỗ trợ về sản phẩm Máy Hút Bụi Cầm Tay</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Kính gửi bộ phận hỗ trợ,
+Tôi là Chung Nguyễn. Tôi vừa mua sản phẩm Máy Hút Bụi Cầm Tay từ hệ thống của quý công ty và gặp phải một số vấn đề trong quá trình thanh toán như sau:
+Khi tôi thực hiện thanh toán cho đơn hàng máy hút bụi, hệ thống báo lỗi và không cho phép tôi hoàn tất giao dịch. Tôi đã thử thanh toán bằng nhiều phương thức khác nhau (thẻ tín dụng, ví điện tử), nhưng đều gặp phải tình trạng tương tự. Do đó, tôi không thể xác nhận đơn hàng và không nhận được thông tin xác nhận nào từ quý công ty.
+Ngày mua hàng: 18/10/2024
+Mã đơn hàng: 18259526
+Tôi mong nhận được sự hỗ trợ từ quý công ty để giải quyết vấn đề này càng sớm càng tốt, để tôi có thể hoàn tất đơn hàng của mình.
+Rất mong nhận được phản hồi từ quý công ty.
+Trân trọng,
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sun, 20 Oct 2024 13:14:29 +0000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>"Google" &lt;no-reply@accounts.google.com&gt;</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Security alert</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">[image: Google]
+Microsoft apps &amp; services was granted access to your Google Account
+nennhayen@gmail.com
+If you did not grant access, you should check this activity and secure your
+account.
+Check activity
+&lt;https://accounts.google.com/AccountChooser?Email=nennhayen@gmail.com&amp;continue=https://myaccount.google.com/alert/nt/1729430069000?rfn%3D127%26rfnc%3D1%26eid%3D7829833809947364935%26et%3D0&gt;
+You can also see security activity at
+https://myaccount.google.com/notifications
+You received this email to let you know about important changes to your
+Google Account and services.
+© 2024 Google LLC, 1600 Amphitheatre Parkway, Mountain View, CA 94043, USA
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sun, 20 Oct 2024 04:36:14 +0000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>"TikTok Shop" &lt;sellersupport@shop.tiktok.com&gt;</x:t>
+  </x:si>
+  <x:si>
+    <x:t>[TikTok Shop]  Bắt Kịp Mọi Xu Hướng Bán Hàng Trong 3 Tháng Tới Với Kênh TikTok Của TikTok Shop!</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">&lt;!doctypehtml&gt;&lt;html xmlns="http://www.w3.org/1999/xhtml"
+xmlns:o="urn:schemas-microsoft-com:office:office"
+xmlns:v="urn:schemas-microsoft-com:vml"&gt;&lt;head&gt;&lt;title&gt;&lt;/title&gt;
+&lt;!--[if !mso]&gt;&lt;!--&gt;&lt;meta content="IE=edge"http-equiv="X-UA-Compatible"&gt;
+&lt;!--&lt;![endif]--&gt;&lt;meta content="text/html; charset=UTF-8"
+http-equiv="Content-Type"&gt;&lt;meta content="width=device-width,initial-scale=1"
+name="viewport"&gt;&lt;style&gt;
+#outlook a{padding:0}body{margin:0;padding:0;-webkit-text-size-adjust:100%;-ms-text-size-adjust:100%}table,td{border-collapse:collapse;mso-table-lspace:0;mso-table-rspace:0}img{border:0;height:auto;
+line-height:100%;outline:0;text-decoration:none;-ms-interpolation-mode:bicubic}p{display:block;margin:13px 0}
+&lt;/style&gt;
+&lt;!--[if mso]&gt;&lt;noscript&gt;&lt;xml&gt;&lt;o:officedocumentsettings&gt;&lt;o:allowpng&gt;&lt;o:pixelsperinch&gt;96
+&lt;/o:pixelsperinch&gt;&lt;/o:officedocumentsettings&gt;&lt;/xml&gt;&lt;/noscript&gt;&lt;![endif]--&gt;
+&lt;!--[if lte mso 11]&gt;&lt;style&gt;.mj-outlook-group-fix{width:100%!important}&lt;/style&gt;&lt;![endif]--&gt;
+&lt;!--[if !mso]&gt;&lt;!--&gt;&lt;link 
+href="https://fonts.googleapis.com/css?family=Droid+Sans:300,400,500,700"
+rel="stylesheet"&gt;&lt;link 
+href="https://fonts.googleapis.com/css?family=Roboto:300,400,500,700"
+rel="stylesheet"&gt;&lt;link 
+href="https://fonts.googleapis.com/css?family=Ubuntu:300,400,500,700"
+rel="stylesheet"&gt;&lt;style&gt;
+@import url(https://fonts.googleapis.com/css?family=Droid+Sans:300,400,500,700);@import url(https://fonts.googleapis.com/css?family=Roboto:300,400,500,700);
+@import url(https://fonts.googleapis.com/css?family=Ubuntu:300,400,500,700);
+&lt;/style&gt;&lt;!--&lt;![endif]--&gt;&lt;style&gt;
+@media only screen and (min-width:375px){.mj-column-per-100{width:100%!important;max-width:100%}}
+&lt;/style&gt;&lt;style media="screen and (min-width:375px)"&gt;
+.moz-text-html .mj-column-per-100{width:100%!important;max-width:100%}&lt;/style&gt;
+&lt;style&gt;
+@media only screen and (max-width:375px){table.mj-full-width-mobile{width:100%!important}td.mj-full-width-mobile{width:auto!important}}
+&lt;/style&gt;&lt;/head&gt;&lt;body style="word-spacing:normal;background-color:#fff"&gt;&lt;div 
+style="background-color:#fff"&gt;
+&lt;!--[if mso | IE]&gt;&lt;table border="0"cellpadding="0"cellspacing="0"role="presentation"
+style="width:600px"align="center"width="600"bgcolor="#ffffff"&gt;&lt;tr&gt;&lt;td 
+style="line-height:0;font-size:0;mso-line-height-rule:exactly"&gt;&lt;![endif]--&gt;
+&lt;div 
+style="background:#fff;background-color:#fff;margin:0 auto;max-width:600px"&gt;
+&lt;table border="0"cellpadding="0"cellspacing="0"role="presentation"
+style="background:#fff;background-color:#fff;width:100%"align="center"&gt;&lt;tbody&gt;
+&lt;tr&gt;&lt;td 
+style="border:none;direction:ltr;font-size:0;padding:0;text-align:center"&gt;
+&lt;!--[if mso | IE]&gt;&lt;table border="0"cellpadding="0"cellspacing="0"role="presentation"&gt;&lt;tr&gt;&lt;td 
+width="600px"&gt;&lt;table border="0"cellpadding="0"cellspacing="0"
+role="presentation"style="width:600px"align="center"width="600"
+bgcolor="#ffffff"&gt;&lt;tr&gt;&lt;td 
+style="line-height:0;font-size:0;mso-line-height-rule:exactly"&gt;&lt;![endif]--&gt;
+&lt;div 
+style="background:#fff;background-color:#fff;margin:0 auto;max-width:600px"&gt;
+&lt;table border="0"cellpadding="0"cellspacing="0"role="presentation"
+style="background:#fff;background-color:#fff;width:100%"align="center"&gt;&lt;tbody&gt;
+&lt;tr&gt;&lt;td 
+style="border:none;direction:ltr;font-size:0;padding:0;text-align:center"&gt;
+&lt;!--[if mso | IE]&gt;&lt;table border="0"cellpadding="0"cellspacing="0"role="presentation"&gt;&lt;tr&gt;&lt;td 
+align="center"width="600px"&gt;&lt;![endif]--&gt;&lt;table border="0"cellpadding="0"
+cellspacing="0"role="presentation"
+style="border-collapse:collapse;border-spacing:0"&gt;&lt;tbody&gt;&lt;tr&gt;&lt;td 
+style="width:600px"&gt;&lt;img height="auto"
+src="https://sf16-va.tiktokcdn.com/obj/eden-va2/ylaulj_lnhzzlt_syhlw/ljhwZthlaukjlkulzlp/footer-general-dark.png"
+style="border:0;display:block;outline:0;text-decoration:none;height:auto;width:100%;font-size:13px"
+width="600"&gt;&lt;/td&gt;&lt;/tr&gt;&lt;/tbody&gt;&lt;/table&gt;&lt;!--[if mso | IE]&gt;&lt;![endif]--&gt;&lt;/td&gt;&lt;/tr&gt;
+&lt;/tbody&gt;&lt;/table&gt;&lt;/div&gt;
+&lt;!--[if mso | IE]&gt;&lt;tr&gt;&lt;td width="600px"&gt;&lt;table border="0"cellpadding="0"cellspacing="0"
+role="presentation"style="width:600px"align="center"width="600"
+bgcolor="#FFFFFF"&gt;&lt;tr&gt;&lt;td 
+style="line-height:0;font-size:0;mso-line-height-rule:exactly"&gt;&lt;![endif]--&gt;
+&lt;div 
+style="background:#fff;background-color:#fff;margin:0 auto;max-width:600px"&gt;
+&lt;table border="0"cellpadding="0"cellspacing="0"role="presentation"
+style="background:#fff;background-color:#fff;width:100%"align="center"&gt;&lt;tbody&gt;
+&lt;tr&gt;&lt;td style="direction:ltr;font-size:0;padding:0;text-align:left"&gt;
+&lt;!--[if mso | IE]&gt;&lt;table border="0"cellpadding="0"cellspacing="0"role="presentation"&gt;&lt;tr&gt;&lt;td 
+style="vertical-align:top;width:600px"&gt;&lt;![endif]--&gt;&lt;div 
+class="mj-column-per-100 mj-outlook-group-fix"
+style="font-size:0;text-align:left;direction:ltr;display:inline-block;vertical-align:top;width:100%"&gt;
+&lt;table border="0"cellpadding="0"cellspacing="0"role="presentation"
+style="vertical-align:top"width="100%"&gt;&lt;tbody&gt;&lt;tr&gt;&lt;td 
+style="background:#fff;font-size:0;padding:16px 16px 16px 16px;word-break:break-word"
+align="left"&gt;&lt;div 
+style="font-family:ProximaNova,Helvetica,Arial,sans-serif,'Segoe UI',Roboto,Oxygen,Ubuntu,Cantarell,'Fira Sans','Droid Sans','Helvetica Neue';font-size:14px;font-weight:400;line-height:1.2;text-align:left;
+color:#000"&gt;&lt;div data-docx-has-block-data="false"
+data-page-id="F8EUdrVDooTGq5xwWdyldMbqgHB"&gt;&lt;div 
+class="ace-line ace-line old-record-id-ZWpZdYTYfoo6hpxPOS5lsNsVgig"&gt;&lt;div 
+data-docx-has-block-data="false"data-page-id="F8EUdrVDooTGq5xwWdyldMbqgHB"&gt;
+&lt;div class="ace-line ace-line old-record-id-ZWpZdYTYfoo6hpxPOS5lsNsVgig"&gt;&lt;div 
+data-docx-has-block-data="false"data-page-id="HRmSd0KP7oYxDtxRgD7ltb7Gg0f"
+data-lark-html-role="root"&gt;&lt;div 
+class="ace-line ace-line old-record-id-B8ewdztpmoCkEvx1SvOlND6jg0f"
+style="white-space:normal"&gt;&lt;div data-docx-has-block-data="false"
+data-page-id="C1GLdPdbLoFmo2xtbUlliXRMgdI"data-lark-html-role="root"&gt;&lt;div 
+class="ace-line ace-line old-record-id-doxlgi1twhdUppYcZXnJOfhYhGe"
+style="white-space:normal"&gt;&lt;div data-docx-has-block-data="false"
+data-page-id="GLNRd6EQVo9D9zxivZ3lefmPgmg"data-lark-html-role="root"&gt;&lt;div 
+class="ace-line ace-line old-record-id-HlgOdnirAoABKaxFuAvlcSXMgGf"&gt;&lt;div 
+data-docx-has-block-data="false"data-page-id="S1Y4d5GTJoOCgoxo5nilIP3wgYo"
+data-lark-html-role="root"&gt;&lt;div 
+class="ace-line ace-line old-record-id-doxlgVJiChlTouwx8TkhT7BDfBb"&gt;&lt;div 
+data-docx-has-block-data="false"data-page-id="LfXhdOZzPowL3rxry1Ml8d2Xgmb"
+data-lark-html-role="root"&gt;&lt;div 
+class="ace-line ace-line old-record-id-RH79dJRtLo4XvyxlWgYlpaL1g63"
+style="text-align:left"&gt;&lt;div data-docx-has-block-data="false"
+data-page-id="JvFEdNNPxo2vv2xyUzhlUFzqgXf"data-lark-html-role="root"&gt;&lt;div 
+class="ace-line ace-line old-record-id-UM5xdRId8oXg2mxJH8FlDCsDgST"
+style="text-align:left"&gt;&lt;div data-docx-has-block-data="false"
+data-page-id="NcYXdeLi8o1a67xWHHdlIXdog8c"data-lark-html-role="root"&gt;&lt;div 
+class="ace-line ace-line old-record-id-doxlgQmSZS7SsoMIr9yllrAZ3ch"
+style="text-align:left"&gt;&lt;div data-docx-has-block-data="false"
+data-page-id="NcYXdeLi8o1a67xWHHdlIXdog8c"data-lark-html-role="root"&gt;&lt;div 
+class="ace-line ace-line old-record-id-doxlgAlHkprYeScy0O7H4dFJxZf"
+style="text-align:left"&gt;&lt;div data-docx-has-block-data="false"
+data-page-id="DWmsdRjpCo0CeAx011il1heRgch"data-lark-html-role="root"&gt;&lt;div 
+class="ace-line ace-line old-record-id-doxlgGDMveGZRCItUp9tRNnlAlc"&gt;&lt;div 
+data-docx-has-block-data="true"data-page-id="N5QSdwuqSoQGrvxknyPlHJvmg2w"
+data-lark-html-role="root"&gt;&lt;div 
+class="ace-line ace-line old-record-id-doxlgtJm8udFuZA1htbMWK14Qqh"&gt;&lt;div 
+data-docx-has-block-data="false"data-page-id="ZMP4dDa7JoLMcLxG9HYlJSxSgUb"
+data-lark-html-role="root"&gt;&lt;div 
+class="ace-line ace-line old-record-id-doxlgLympTEMtJmRr6iVJYGfwzf"&gt;&lt;div 
+data-docx-has-block-data="false"data-page-id="ZMP4dDa7JoLMcLxG9HYlJSxSgUb"
+data-lark-html-role="root"&gt;&lt;div 
+class="ace-line ace-line old-record-id-doxlgLympTEMtJmRr6iVJYGfwzf"&gt;&lt;div 
+data-docx-has-block-data="false"data-page-id="IWDAdzBGNooEmEx3f5yln185gGe"
+data-lark-html-role="root"&gt;&lt;div 
+class="old-record-id-doxlgf7LlKKvpInKVt7AcsDQXPc"style="white-space:normal"&gt;
+&lt;div data-docx-has-block-data="false"
+data-page-id="UMOIdcChNoGFlSxEVsUlTi1ogBc"data-lark-html-role="root"&gt;&lt;div 
+class="ace-line ace-line old-record-id-doxlgYX9S3HTLvYxZ003tU4QEmg"
+style="white-space:normal"&gt;&lt;div data-docx-has-block-data="false"
+data-page-id="QubBdYx8OovcuXxdsqXl4ZMcgJg"data-lark-html-role="root"&gt;&lt;div 
+class="ace-line ace-line old-record-id-doxlgo3BHnPUyo6bJ6qYaPKoaCc"&gt;
+Thân gửi Nhà Bán Hàng,&lt;/div&gt;&lt;div 
+class="ace-line ace-line old-record-id-doxlgo3BHnPUyo6bJ6qYaPKoaCc"&gt;&lt;br&gt;&lt;/div&gt;
+&lt;div class="ace-line ace-line old-record-id-ISnQdDHtaoluRCxdYjflJ3Fug9e"
+style="white-space:normal"&gt;
+Thời điểm cuối năm là thời điểm vàng để tập trung và tăng tốc bán hàng cùng các chiến dịch TikTok Shop. Để nâng trình bán hàng ngay hôm nay, hãy follow ngay kênh truyền thông chính thức của 
+&lt;font color="#fe2c55"&gt;&lt;strong&gt;&lt;a 
+href="https://m.tiktok.shop/s/AJ5c8pKCkYhW"
+style="text-decoration:none;color:inherit"data-lark-is-custom="true"
+tabindex="-1"&gt;TikTok Shop - Sellwithtiktokshop_vn&lt;/a&gt;&lt;/strong&gt; &lt;/font&gt;
+để nắm bắt xu hướng và các nội dung hữu ích độc quyền:&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;
+&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;
+&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;
+&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;/td&gt;&lt;/tr&gt;&lt;/tbody&gt;&lt;/table&gt;&lt;/div&gt;
+&lt;!--[if mso | IE]&gt;&lt;![endif]--&gt;&lt;/td&gt;&lt;/tr&gt;&lt;/tbody&gt;&lt;/table&gt;&lt;/div&gt;
+&lt;!--[if mso | IE]&gt;&lt;tr&gt;&lt;td width="600px"&gt;&lt;table border="0"cellpadding="0"cellspacing="0"
+role="presentation"style="width:600px"align="center"width="600"
+bgcolor="#FFFFFF"&gt;&lt;tr&gt;&lt;td 
+style="line-height:0;font-size:0;mso-line-height-rule:exactly"&gt;&lt;![endif]--&gt;
+&lt;div 
+style="background:#fff;background-color:#fff;margin:0 auto;max-width:600px"&gt;
+&lt;table border="0"cellpadding="0"cellspacing="0"role="presentation"
+style="background:#fff;background-color:#fff;width:100%"align="center"&gt;&lt;tbody&gt;
+&lt;tr&gt;&lt;td style="direction:ltr;font-size:0;padding:0;text-align:left"&gt;
+&lt;!--[if mso | IE]&gt;&lt;table border="0"cellpadding="0"cellspacing="0"role="presentation"&gt;&lt;tr&gt;&lt;td 
+style="vertical-align:top;width:600px"&gt;&lt;![endif]--&gt;&lt;div 
+class="mj-column-per-100 mj-outlook-group-fix"
+style="font-size:0;text-align:left;direction:ltr;display:inline-block;vertical-align:top;width:100%"&gt;
+&lt;table border="0"cellpadding="0"cellspacing="0"role="presentation"
+style="vertical-align:top"width="100%"&gt;&lt;tbody&gt;&lt;tr&gt;&lt;td 
+style="font-size:0;padding:0;word-break:break-word"align="center"&gt;&lt;table 
+border="0"cellpadding="0"cellspacing="0"role="presentation"
+style="border-collapse:collapse;border-spacing:0"&gt;&lt;tbody&gt;&lt;tr&gt;&lt;td 
+style="width:600px"&gt;&lt;a href="https://m.tiktok.shop/s/AJ5c8pKCkYhW"
+target="_blank"&gt;&lt;img height="auto"
+src="https://p16-oec-sg.ibyteimg.com/tos-alisg-i-aphluv4xwc-sg/f009b8011cb04b22b143f69d0ae56626~tplv-aphluv4xwc-origin-image.image"
+style="border:0;border-radius:0;display:block;outline:0;text-decoration:none;height:auto;width:100%;font-size:13px"
+width="600"&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;&lt;/tbody&gt;&lt;/table&gt;&lt;/td&gt;&lt;/tr&gt;&lt;/tbody&gt;&lt;/table&gt;&lt;/div&gt;
+&lt;!--[if mso | IE]&gt;&lt;![endif]--&gt;&lt;/td&gt;&lt;/tr&gt;&lt;/tbody&gt;&lt;/table&gt;&lt;/div&gt;
+&lt;!--[if mso | IE]&gt;&lt;tr&gt;&lt;td width="600px"&gt;&lt;table border="0"cellpadding="0"cellspacing="0"
+role="presentation"style="width:600px"align="center"width="600"
+bgcolor="#FFFFFF"&gt;&lt;tr&gt;&lt;td 
+style="line-height:0;font-size:0;mso-line-height-rule:exactly"&gt;&lt;![endif]--&gt;
+&lt;div 
+style="background:#fff;background-color:#fff;margin:0 auto;max-width:600px"&gt;
+&lt;table border="0"cellpadding="0"cellspacing="0"role="presentation"
+style="background:#fff;background-color:#fff;width:100%"align="center"&gt;&lt;tbody&gt;
+&lt;tr&gt;&lt;td style="direction:ltr;font-size:0;padding:0;text-align:left"&gt;
+&lt;!--[if mso | IE]&gt;&lt;table border="0"cellpadding="0"cellspacing="0"role="presentation"&gt;&lt;tr&gt;&lt;td 
+style="vertical-align:top;width:600px"&gt;&lt;![endif]--&gt;&lt;div 
+class="mj-column-per-100 mj-outlook-group-fix"
+style="font-size:0;text-align:left;direction:ltr;display:inline-block;vertical-align:top;width:100%"&gt;
+&lt;table border="0"cellpadding="0"cellspacing="0"role="presentation"
+style="vertical-align:top"width="100%"&gt;&lt;tbody&gt;&lt;tr&gt;&lt;td 
+style="font-size:0;padding:16px 16px 16px 16px;word-break:break-word"
+align="center"&gt;&lt;div 
+style="font-family:ProximaNova,Helvetica,Arial,sans-serif,'Segoe UI',Roboto,Oxygen,Ubuntu,Cantarell,'Fira Sans','Droid Sans','Helvetica Neue';font-size:14px;font-weight:400;line-height:1.2;text-align:
+center;color:#000"&gt;&lt;div data-docx-has-block-data="false"
+data-page-id="QubBdYx8OovcuXxdsqXl4ZMcgJg"data-lark-html-role="root"&gt;&lt;div 
+class="ace-line ace-line old-record-id-Xp7xdoOvto5RL7xkml3llDVYgUc"&gt;&lt;div 
+data-docx-has-block-data="false"data-page-id="QubBdYx8OovcuXxdsqXl4ZMcgJg"
+data-lark-html-role="root"&gt;&lt;div 
+class="ace-line ace-line old-record-id-Xp7xdoOvto5RL7xkml3llDVYgUc"
+style="white-space:normal"&gt;&lt;div style="text-align:left"&gt;&lt;div 
+data-docx-has-block-data="false"data-page-id="QubBdYx8OovcuXxdsqXl4ZMcgJg"
+data-lark-html-role="root"&gt;&lt;div 
+class="old-record-id-Xp7xdoOvto5RL7xkml3llDVYgUc"&gt;
+✍️Chia sẻ công thức tạo video độc quyền, đăng là xu hướng. &lt;/div&gt;&lt;div 
+class="old-record-id-Xp7xdoOvto5RL7xkml3llDVYgUc"&gt;
+✍️Hướng dẫn cách kháng nghị đúng cách. &lt;/div&gt;&lt;div 
+class="old-record-id-Xp7xdoOvto5RL7xkml3llDVYgUc"&gt;
+✍️Hướng dẫn cách tối ưu sản phẩm, giúp thăng hạng trên trang tìm kiếm. &lt;/div&gt;
+&lt;div class="old-record-id-Xp7xdoOvto5RL7xkml3llDVYgUc"&gt;
+✍️Công cụ tìm kiếm các nội dung lên xu hướng. &lt;/div&gt;&lt;div 
+class="old-record-id-Xp7xdoOvto5RL7xkml3llDVYgUc"&gt;
+✍️Hướng dẫn chạy quảng cáo, tối ưu chi phí, bứt tốc doanh thu.&lt;/div&gt;&lt;/div&gt;
+&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;/td&gt;&lt;/tr&gt;&lt;/tbody&gt;&lt;/table&gt;&lt;/div&gt;
+&lt;!--[if mso | IE]&gt;&lt;![endif]--&gt;&lt;/td&gt;&lt;/tr&gt;&lt;/tbody&gt;&lt;/table&gt;&lt;/div&gt;
+&lt;!--[if mso | IE]&gt;&lt;![endif]--&gt;&lt;/td&gt;&lt;/tr&gt;&lt;/tbody&gt;&lt;/table&gt;&lt;/div&gt;
+&lt;!--[if mso | IE]&gt;&lt;table border="0"cellpadding="0"cellspacing="0"role="presentation"
+style="width:600px"align="center"width="600"bgcolor="#FFFFFF"&gt;&lt;tr&gt;&lt;td 
+style="line-height:0;font-size:0;mso-line-height-rule:exactly"&gt;&lt;![endif]--&gt;
+&lt;div 
+style="background:#fff;background-color:#fff;margin:0 auto;max-width:600px"&gt;
+&lt;table border="0"cellpadding="0"cellspacing="0"role="presentation"
+style="background:#fff;background-color:#fff;width:100%"align="center"&gt;&lt;tbody&gt;
+&lt;tr&gt;&lt;td style="direction:ltr;font-size:0;padding:0;text-align:left"&gt;
+&lt;!--[if mso | IE]&gt;&lt;table border="0"cellpadding="0"cellspacing="0"role="presentation"&gt;&lt;tr&gt;&lt;td 
+style="vertical-align:top;width:600px"&gt;&lt;![endif]--&gt;&lt;div 
+class="mj-column-per-100 mj-outlook-group-fix"
+style="font-size:0;text-align:left;direction:ltr;display:inline-block;vertical-align:top;width:100%"&gt;
+&lt;table border="0"cellpadding="0"cellspacing="0"role="presentation"
+style="vertical-align:top"width="100%"&gt;&lt;tbody&gt;&lt;tr&gt;&lt;td 
+style="font-size:0;padding:16px 16px 16px 16px;word-break:break-word"
+align="center"vertical-align="middle"&gt;&lt;table border="0"cellpadding="0"
+cellspacing="0"role="presentation"
+style="border-collapse:separate;line-height:100%"&gt;&lt;tbody&gt;&lt;tr&gt;&lt;td 
+style="border:none;border-radius:0;cursor:auto;mso-padding-alt:8px 16px 8px 16px;text-align:center;background:#fe2c55"
+align="center"bgcolor="#FE2C55"role="presentation"valign="middle"&gt;&lt;a 
+href="https://m.tiktok.shop/s/AJ5c8pKCkYhW"
+style="display:inline-block;background:#fe2c55;color:#fbfbfb;font-family:ProximaNova,Helvetica,Arial,sans-serif,'Segoe UI',Roboto,Oxygen,Ubuntu,Cantarell,'Fira Sans','Droid Sans','Helvetica Neue';font-size
+:14px;font-weight:500;line-height:120%;margin:0;text-decoration:none;text-transform:none;padding:8px 16px 8px 16px;mso-padding-alt:0;border-radius:0"
+target="_blank"&gt;THEO DÕI NGAY&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;&lt;/tbody&gt;&lt;/table&gt;&lt;/td&gt;&lt;/tr&gt;&lt;/tbody&gt;
+&lt;/table&gt;&lt;/div&gt;&lt;!--[if mso | IE]&gt;&lt;![endif]--&gt;&lt;/td&gt;&lt;/tr&gt;&lt;/tbody&gt;&lt;/table&gt;&lt;/div&gt;
+&lt;!--[if mso | IE]&gt;&lt;table border="0"cellpadding="0"cellspacing="0"role="presentation"
+style="width:600px"align="center"width="600"bgcolor="#FFFFFF"&gt;&lt;tr&gt;&lt;td 
+style="line-height:0;font-size:0;mso-line-height-rule:exactly"&gt;&lt;![endif]--&gt;
+&lt;div 
+style="background:#fff;background-color:#fff;margin:0 auto;max-width:600px"&gt;
+&lt;table border="0"cellpadding="0"cellspacing="0"role="presentation"
+style="background:#fff;background-color:#fff;width:100%"align="center"&gt;&lt;tbody&gt;
+&lt;tr&gt;&lt;td style="direction:ltr;font-size:0;padding:0;text-align:left"&gt;
+&lt;!--[if mso | IE]&gt;&lt;table border="0"cellpadding="0"cellspacing="0"role="presentation"&gt;&lt;tr&gt;&lt;td 
+style="vertical-align:top;width:600px"&gt;&lt;![endif]--&gt;&lt;div 
+class="mj-column-per-100 mj-outlook-group-fix"
+style="font-size:0;text-align:left;direction:ltr;display:inline-block;vertical-align:top;width:100%"&gt;
+&lt;table border="0"cellpadding="0"cellspacing="0"role="presentation"
+style="vertical-align:top"width="100%"&gt;&lt;tbody&gt;&lt;tr&gt;&lt;td 
+style="background:#fff;font-size:0;padding:16px 16px 16px 16px;word-break:break-word"
+align="left"&gt;&lt;div 
+style="font-family:ProximaNova,Helvetica,Arial,sans-serif,'Segoe UI',Roboto,Oxygen,Ubuntu,Cantarell,'Fira Sans','Droid Sans','Helvetica Neue';font-size:14px;font-weight:400;line-height:1.2;text-align:left;
+color:#000"&gt;&lt;div 
+class="ace-line ace-line old-record-id-XltDdMWeRofLT3xGmaBlVznkgIf"
+style="--hover-color:rgb(var(--primary-4, #1890ff));--selected-color:rgb(var(--primary-6, #1890ff));color:#fbfbfb;text-align:left"&gt;
+&lt;/div&gt;&lt;div data-docx-has-block-data="false"
+data-page-id="F8EUdrVDooTGq5xwWdyldMbqgHB"&gt;&lt;div 
+data-docx-has-block-data="false"data-page-id="WsCMda7xQooYDpxdmlmlhs1kged"&gt;
+&lt;div data-docx-has-block-data="false"
+data-page-id="Ok8QdDx3DokmBpxGvgelzxhLgxf"&gt;&lt;div 
+data-docx-has-block-data="false"data-page-id="JgkBdfK5to1neaxonA8ls88KgVf"&gt;
+&lt;div data-docx-has-block-data="false"
+data-page-id="F8EUdrVDooTGq5xwWdyldMbqgHB"&gt;&lt;div 
+class="old-record-id-doxlgyfHLq5DMujbYfi9ISDzaGN"style="white-space:normal"&gt;
+&lt;div data-docx-has-block-data="false"
+data-page-id="NcYXdeLi8o1a67xWHHdlIXdog8c"data-lark-html-role="root"&gt;&lt;div 
+class="ace-line ace-line old-record-id-doxlgMjyZBgv7t2cJzfVJzk3WAg"
+style="text-align:left"&gt;&lt;div data-docx-has-block-data="false"
+data-page-id="QubBdYx8OovcuXxdsqXl4ZMcgJg"data-lark-html-role="root"&gt;&lt;div 
+class="ace-line ace-line old-record-id-Xp7xdoOvto5RL7xkml3llDVYgUc"
+style="white-space:normal"&gt;&lt;span style="word-spacing:normal"&gt;
+TikTok Shop còn có nhiều combo quà tặng hấp dẫn, vouchers hàng tháng dành tặng cho Nhà Bán Hàng. Chăm chỉ follow - nhận ngay quà to _xD83C__xDF80__xD83C__xDF80__xD83C__xDF80_
+&lt;/span&gt;&lt;br&gt;&lt;/div&gt;&lt;div 
+class="ace-line ace-line old-record-id-Xp7xdoOvto5RL7xkml3llDVYgUc"
+style="white-space:normal"&gt;&lt;br&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div 
+class="ace-line ace-line old-record-id-doxlgMjyZBgv7t2cJzfVJzk3WAg"
+style="text-align:left"&gt;&lt;span style="word-spacing:normal"&gt;Trân trọng,&lt;/span&gt;
+&lt;br&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div 
+class="ace-line ace-line old-record-id-doxlg78S7ZkxVhlD3Wg7wVm7NCd"
+style="text-align:left"&gt;&lt;strong style="word-spacing:normal"&gt;Đội Ngũ &lt;/strong&gt;
+&lt;strong style="word-spacing:normal"&gt;TikTok Shop&lt;/strong&gt;&lt;br&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;
+&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;/td&gt;&lt;/tr&gt;&lt;/tbody&gt;&lt;/table&gt;&lt;/div&gt;
+&lt;!--[if mso | IE]&gt;&lt;![endif]--&gt;&lt;/td&gt;&lt;/tr&gt;&lt;/tbody&gt;&lt;/table&gt;&lt;/div&gt;
+&lt;!--[if mso | IE]&gt;&lt;table border="0"cellpadding="0"cellspacing="0"role="presentation"
+style="width:600px"align="center"width="600"bgcolor="#FFFFFF"&gt;&lt;tr&gt;&lt;td 
+style="line-height:0;font-size:0;mso-line-height-rule:exactly"&gt;&lt;![endif]--&gt;
+&lt;div 
+style="background:#fff;background-color:#fff;margin:0 auto;max-width:600px"&gt;
+&lt;table border="0"cellpadding="0"cellspacing="0"role="presentation"
+style="background:#fff;background-color:#fff;width:100%"align="center"&gt;&lt;tbody&gt;
+&lt;tr&gt;&lt;td style="direction:ltr;font-size:0;padding:0;text-align:left"&gt;
+&lt;!--[if mso | IE]&gt;&lt;table border="0"cellpadding="0"cellspacing="0"role="presentation"&gt;&lt;tr&gt;&lt;td 
+style="vertical-align:top;width:600px"&gt;&lt;![endif]--&gt;&lt;div 
+class="mj-column-per-100 mj-outlook-group-fix"
+style="font-size:0;text-align:left;direction:ltr;display:inline-block;vertical-align:top;width:100%"&gt;
+&lt;table border="0"cellpadding="0"cellspacing="0"role="presentation"
+style="vertical-align:top"width="100%"&gt;&lt;tbody&gt;&lt;tr&gt;&lt;td 
+style="font-size:0;padding:0;word-break:break-word"align="center"&gt;&lt;table 
+border="0"cellpadding="0"cellspacing="0"role="presentation"
+style="border-collapse:collapse;border-spacing:0"&gt;&lt;tbody&gt;&lt;tr&gt;&lt;td 
+style="width:600px"&gt;&lt;a 
+href="https://m.tiktok.shop/s/AJ5c8pKDZhnD"
+target="_blank"&gt;&lt;img height="auto"
+src="https://p16-oec-sg.ibyteimg.com/tos-alisg-i-aphluv4xwc-sg/b86fe2bc24ff4702b5212e9a67bd6133~tplv-aphluv4xwc-origin-image.image"
+style="border:0;border-radius:0;display:block;outline:0;text-decoration:none;height:auto;width:100%;font-size:13px"
+width="600"&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;&lt;/tbody&gt;&lt;/table&gt;&lt;/td&gt;&lt;/tr&gt;&lt;/tbody&gt;&lt;/table&gt;&lt;/div&gt;
+&lt;!--[if mso | IE]&gt;&lt;![endif]--&gt;&lt;/td&gt;&lt;/tr&gt;&lt;/tbody&gt;&lt;/table&gt;&lt;/div&gt;
+&lt;!--[if mso | IE]&gt;&lt;table border="0"cellpadding="0"cellspacing="0"role="presentation"
+style="width:600px"align="center"width="600"bgcolor="#000000"&gt;&lt;tr&gt;&lt;td 
+style="line-height:0;font-size:0;mso-line-height-rule:exactly"&gt;&lt;![endif]--&gt;
+&lt;div 
+style="background:#000;background-color:#000;margin:0 auto;max-width:600px"&gt;
+&lt;table border="0"cellpadding="0"cellspacing="0"role="presentation"
+style="background:#000;background-color:#000;width:100%"align="center"&gt;&lt;tbody&gt;
+&lt;tr&gt;&lt;td 
+style="border:none;direction:ltr;font-size:0;padding:20px 0 20px 0;text-align:center"&gt;
+&lt;!--[if mso | IE]&gt;&lt;table border="0"cellpadding="0"cellspacing="0"role="presentation"&gt;&lt;tr&gt;&lt;td 
+width="600px"&gt;&lt;table border="0"cellpadding="0"cellspacing="0"
+role="presentation"style="width:600px"align="center"width="600"
+bgcolor="#000000"&gt;&lt;tr&gt;&lt;td 
+style="line-height:0;font-size:0;mso-line-height-rule:exactly"&gt;&lt;![endif]--&gt;
+&lt;div 
+style="background:#000;background-color:#000;margin:0 auto;max-width:600px"&gt;
+&lt;table border="0"cellpadding="0"cellspacing="0"role="presentation"
+style="background:#000;background-color:#000;width:100%"align="center"&gt;&lt;tbody&gt;
+&lt;tr&gt;&lt;td 
+style="border:none;direction:ltr;font-size:0;padding:0;text-align:center"&gt;
+&lt;!--[if mso | IE]&gt;&lt;table border="0"cellpadding="0"cellspacing="0"role="presentation"&gt;&lt;tr&gt;&lt;td 
+align="center"
+class="node-contenteditable-type-text-outlook node-contenteditable-idx-content.children.[4].data.value.title-outlook"&gt;&lt;![endif]--&gt;
+&lt;div 
+style="font-family:ProximaNova,Helvetica,Arial,sans-serif,'Segoe UI',Roboto,Oxygen,Ubuntu,Cantarell,'Fira Sans','Droid Sans','Helvetica Neue';font-size:14px;font-weight:400px;line-height:1;text-align:
+center;color:#fbfbfb"&gt;
+Nếu bạn muốn thay đổi cách bạn nhận được những email này hoặc ngừng nhận email từ TikTok Shop, bạn có thể nhấp vào 
+&lt;a href="https://seller.tiktokglobalshop.com/m/email/unsubscribe?msg_category_type=3040000&amp;amp;channel_type=3&amp;amp;biz_id=1&amp;amp;is_marketing=true&amp;amp;is_main_account=true&amp;amp;country=704&amp;amp;business_type=1&amp;amp;is_task_center=1&amp;amp;task_edition=5037789555203&amp;amp;token=jO1bqyzLkHGK8fBAotrZ7FsT5iM2LREaDJMTy/tq7Z3Le7Peu99TKTus45uQWR5l"
+style="color:#fbfbfb;font-weight:700;text-decoration:underline"&gt;đây&lt;/a&gt;
+. Đối với tài khoản phụ, vui lòng đăng nhập bằng tài khoản chủ sở hữu để thay đổi cài đặt.
+&lt;/div&gt;&lt;!--[if mso | IE]&gt;&lt;![endif]--&gt;&lt;/td&gt;&lt;/tr&gt;&lt;/tbody&gt;&lt;/table&gt;&lt;/div&gt;
+&lt;!--[if mso | IE]&gt;&lt;![endif]--&gt;&lt;/td&gt;&lt;/tr&gt;&lt;/tbody&gt;&lt;/table&gt;&lt;/div&gt;
+&lt;!--[if mso | IE]&gt;&lt;![endif]--&gt;&lt;/div&gt;&lt;img src="http://url7465.shop.tiktok.com/wf/open?upn=u001.EHqfYjOIHj-2B321qG8kw28q0lvGjRlSjliPesDCZkWeTn4fuM4s3WslwudV4RvNxEe56B9jDOVvVlxDRZPanqruTVywUruYD3xGVjFjppPvLjYqCsaiNVRVeUxv-2B4ymcfKGbrUXh3K3kNShSbDesUnHj-2BrPH3Zd3qPq0s6A5U28tss4dX59QDbHtoVfM7m7G2dhf3SHivmUmqvLmYQCQwIj8ehbJjbhQo5GDUIqgLLd5oFq4EonLQoppLe5nMNKX31uIG57t9UQIfHb4Wd05Mho-2F9Iba8Zb6odXEe98O2OYF8hojm6-2FBP81FzqVP6jAykn-2FO0e9cEvlt2fhy-2Fmv9nUV6e03QkHsw9K0f6eOAgEApICJ5MDuofOSoVqcqFUsOE9RfvNv7JBeKLx2najUPuAA-3D-3D" alt="" width="1" height="1" border="0" style="height:1px !important;width:1px !important;border-width:0 !important;margin-top:0 !important;margin-bottom:0 !important;margin-right:0 !important;margin-left:0 !important;padding-top:0 !important;padding-bottom:0 !important;padding-right:0 !important;padding-left:0 !important;"/&gt;&lt;/body&gt;&lt;/html&gt;
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sat, 19 Oct 2024 13:27:45 +0000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>[TikTok Shop] Hội Thảo Chiến Dịch: Kết Hợp Công Cụ &amp; Chiến Dịch Khuyến Mãi Hiệu Quả Mùa Sale</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">&lt;!doctypehtml&gt;&lt;html xmlns="http://www.w3.org/1999/xhtml"
+xmlns:o="urn:schemas-microsoft-com:office:office"
+xmlns:v="urn:schemas-microsoft-com:vml"&gt;&lt;head&gt;&lt;title&gt;&lt;/title&gt;
+&lt;!--[if !mso]&gt;&lt;!--&gt;&lt;meta content="IE=edge"http-equiv="X-UA-Compatible"&gt;
+&lt;!--&lt;![endif]--&gt;&lt;meta content="text/html; charset=UTF-8"
+http-equiv="Content-Type"&gt;&lt;meta content="width=device-width,initial-scale=1"
+name="viewport"&gt;&lt;style&gt;
+#outlook a{padding:0}body{margin:0;padding:0;-webkit-text-size-adjust:100%;-ms-text-size-adjust:100%}table,td{border-collapse:collapse;mso-table-lspace:0;mso-table-rspace:0}img{border:0;height:auto;
+line-height:100%;outline:0;text-decoration:none;-ms-interpolation-mode:bicubic}p{display:block;margin:13px 0}
+&lt;/style&gt;
+&lt;!--[if mso]&gt;&lt;noscript&gt;&lt;xml&gt;&lt;o:officedocumentsettings&gt;&lt;o:allowpng&gt;&lt;o:pixelsperinch&gt;96
+&lt;/o:pixelsperinch&gt;&lt;/o:officedocumentsettings&gt;&lt;/xml&gt;&lt;/noscript&gt;&lt;![endif]--&gt;
+&lt;!--[if lte mso 11]&gt;&lt;style&gt;.mj-outlook-group-fix{width:100%!important}&lt;/style&gt;&lt;![endif]--&gt;
+&lt;!--[if !mso]&gt;&lt;!--&gt;&lt;link 
+href="https://fonts.googleapis.com/css?family=Droid+Sans:300,400,500,700"
+rel="stylesheet"&gt;&lt;link 
+href="https://fonts.googleapis.com/css?family=Roboto:300,400,500,700"
+rel="stylesheet"&gt;&lt;link 
+href="https://fonts.googleapis.com/css?family=Ubuntu:300,400,500,700"
+rel="stylesheet"&gt;&lt;style&gt;
+@import url(https://fonts.googleapis.com/css?family=Droid+Sans:300,400,500,700);@import url(https://fonts.googleapis.com/css?family=Roboto:300,400,500,700);
+@import url(https://fonts.googleapis.com/css?family=Ubuntu:300,400,500,700);
+&lt;/style&gt;&lt;!--&lt;![endif]--&gt;&lt;style&gt;
+@media only screen and (min-width:375px){.mj-column-per-100{width:100%!important;max-width:100%}}
+&lt;/style&gt;&lt;style media="screen and (min-width:375px)"&gt;
+.moz-text-html .mj-column-per-100{width:100%!important;max-width:100%}&lt;/style&gt;
+&lt;style&gt;
+@media only screen and (max-width:375px){table.mj-full-width-mobile{width:100%!important}td.mj-full-width-mobile{width:auto!important}}
+&lt;/style&gt;&lt;/head&gt;&lt;body style="word-spacing:normal;background-color:#fff"&gt;&lt;div 
+style="background-color:#fff"&gt;
+&lt;!--[if mso | IE]&gt;&lt;table border="0"cellpadding="0"cellspacing="0"role="presentation"
+style="width:600px"align="center"width="600"bgcolor="#ffffff"&gt;&lt;tr&gt;&lt;td 
+style="line-height:0;font-size:0;mso-line-height-rule:exactly"&gt;&lt;![endif]--&gt;
+&lt;div 
+style="background:#fff;background-color:#fff;margin:0 auto;max-width:600px"&gt;
+&lt;table border="0"cellpadding="0"cellspacing="0"role="presentation"
+style="background:#fff;background-color:#fff;width:100%"align="center"&gt;&lt;tbody&gt;
+&lt;tr&gt;&lt;td 
+style="border:none;direction:ltr;font-size:0;padding:0;text-align:center"&gt;
+&lt;!--[if mso | IE]&gt;&lt;table border="0"cellpadding="0"cellspacing="0"role="presentation"&gt;&lt;tr&gt;&lt;td 
+width="600px"&gt;&lt;table border="0"cellpadding="0"cellspacing="0"
+role="presentation"style="width:600px"align="center"width="600"
+bgcolor="#ffffff"&gt;&lt;tr&gt;&lt;td 
+style="line-height:0;font-size:0;mso-line-height-rule:exactly"&gt;&lt;![endif]--&gt;
+&lt;div 
+style="background:#fff;background-color:#fff;margin:0 auto;max-width:600px"&gt;
+&lt;table border="0"cellpadding="0"cellspacing="0"role="presentation"
+style="background:#fff;background-color:#fff;width:100%"align="center"&gt;&lt;tbody&gt;
+&lt;tr&gt;&lt;td 
+style="border:none;direction:ltr;font-size:0;padding:0;text-align:center"&gt;
+&lt;!--[if mso | IE]&gt;&lt;table border="0"cellpadding="0"cellspacing="0"role="presentation"&gt;&lt;tr&gt;&lt;td 
+align="center"width="600px"&gt;&lt;![endif]--&gt;&lt;table border="0"cellpadding="0"
+cellspacing="0"role="presentation"
+style="border-collapse:collapse;border-spacing:0"&gt;&lt;tbody&gt;&lt;tr&gt;&lt;td 
+style="width:600px"&gt;&lt;img height="auto"
+src="https://sf16-va.tiktokcdn.com/obj/eden-va2/ylaulj_lnhzzlt_syhlw/ljhwZthlaukjlkulzlp/footer-general-dark.png"
+style="border:0;display:block;outline:0;text-decoration:none;height:auto;width:100%;font-size:13px"
+width="600"&gt;&lt;/td&gt;&lt;/tr&gt;&lt;/tbody&gt;&lt;/table&gt;&lt;!--[if mso | IE]&gt;&lt;![endif]--&gt;&lt;/td&gt;&lt;/tr&gt;
+&lt;/tbody&gt;&lt;/table&gt;&lt;/div&gt;
+&lt;!--[if mso | IE]&gt;&lt;tr&gt;&lt;td width="600px"&gt;&lt;table border="0"cellpadding="0"cellspacing="0"
+role="presentation"style="width:600px"align="center"width="600"
+bgcolor="#FFFFFF"&gt;&lt;tr&gt;&lt;td 
+style="line-height:0;font-size:0;mso-line-height-rule:exactly"&gt;&lt;![endif]--&gt;
+&lt;div 
+style="background:#fff;background-color:#fff;margin:0 auto;max-width:600px"&gt;
+&lt;table border="0"cellpadding="0"cellspacing="0"role="presentation"
+style="background:#fff;background-color:#fff;width:100%"align="center"&gt;&lt;tbody&gt;
+&lt;tr&gt;&lt;td style="direction:ltr;font-size:0;padding:0;text-align:left"&gt;
+&lt;!--[if mso | IE]&gt;&lt;table border="0"cellpadding="0"cellspacing="0"role="presentation"&gt;&lt;tr&gt;&lt;td 
+style="vertical-align:top;width:600px"&gt;&lt;![endif]--&gt;&lt;div 
+class="mj-column-per-100 mj-outlook-group-fix"
+style="font-size:0;text-align:left;direction:ltr;display:inline-block;vertical-align:top;width:100%"&gt;
+&lt;table border="0"cellpadding="0"cellspacing="0"role="presentation"
+style="vertical-align:top"width="100%"&gt;&lt;tbody&gt;&lt;tr&gt;&lt;td 
+style="background:#000;font-size:0;padding:16px 16px 16px 16px;word-break:break-word"
+align="center"vertical-align="middle"&gt;&lt;table border="0"cellpadding="0"
+cellspacing="0"role="presentation"
+style="border-collapse:separate;line-height:100%"&gt;&lt;tbody&gt;&lt;tr&gt;&lt;td 
+style="border:none;border-radius:0;cursor:auto;mso-padding-alt:8px 16px 8px 16px;text-align:center;background:#fe2c55"
+align="center"bgcolor="#FE2C55"role="presentation"valign="middle"&gt;&lt;a 
+href="https://m.tiktok.shop/s/AJ5aj7R51R9J"
+style="display:inline-block;background:#fe2c55;color:#fff;font-family:ProximaNova,Helvetica,Arial,sans-serif,'Segoe UI',Roboto,Oxygen,Ubuntu,Cantarell,'Fira Sans','Droid Sans','Helvetica Neue';font-size:
+14px;font-weight:500;line-height:120%;margin:0;text-decoration:none;text-transform:none;padding:8px 16px 8px 16px;mso-padding-alt:0;border-radius:0"
+target="_blank"&gt;NHẬN VOUCHER TẠI ĐÂY!&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;&lt;/tbody&gt;&lt;/table&gt;&lt;/td&gt;&lt;/tr&gt;
+&lt;/tbody&gt;&lt;/table&gt;&lt;/div&gt;&lt;!--[if mso | IE]&gt;&lt;![endif]--&gt;&lt;/td&gt;&lt;/tr&gt;&lt;/tbody&gt;&lt;/table&gt;
+&lt;/div&gt;
+&lt;!--[if mso | IE]&gt;&lt;tr&gt;&lt;td width="600px"&gt;&lt;table border="0"cellpadding="0"cellspacing="0"
+role="presentation"style="width:600px"align="center"width="600"
+bgcolor="#FFFFFF"&gt;&lt;tr&gt;&lt;td 
+style="line-height:0;font-size:0;mso-line-height-rule:exactly"&gt;&lt;![endif]--&gt;
+&lt;div 
+style="background:#fff;background-color:#fff;margin:0 auto;max-width:600px"&gt;
+&lt;table border="0"cellpadding="0"cellspacing="0"role="presentation"
+style="background:#fff;background-color:#fff;width:100%"align="center"&gt;&lt;tbody&gt;
+&lt;tr&gt;&lt;td style="direction:ltr;font-size:0;padding:0;text-align:left"&gt;
+&lt;!--[if mso | IE]&gt;&lt;table border="0"cellpadding="0"cellspacing="0"role="presentation"&gt;&lt;tr&gt;&lt;td 
+style="vertical-align:top;width:600px"&gt;&lt;![endif]--&gt;&lt;div 
+class="mj-column-per-100 mj-outlook-group-fix"
+style="font-size:0;text-align:left;direction:ltr;display:inline-block;vertical-align:top;width:100%"&gt;
+&lt;table border="0"cellpadding="0"cellspacing="0"role="presentation"
+style="vertical-align:top"width="100%"&gt;&lt;tbody&gt;&lt;tr&gt;&lt;td 
+style="font-size:0;padding:0;word-break:break-word"align="left"&gt;&lt;table 
+border="0"cellpadding="0"cellspacing="0"role="presentation"
+style="border-collapse:collapse;border-spacing:0"&gt;&lt;tbody&gt;&lt;tr&gt;&lt;td 
+style="width:600px"&gt;&lt;a href="https://m.tiktok.shop/s/AJ5aj7R51R9J"
+target="_blank"&gt;&lt;img height="auto"
+src="https://p16-oec-sg.ibyteimg.com/tos-alisg-i-aphluv4xwc-sg/fc5c79dc07f848c9bb336dc2782a463b~tplv-aphluv4xwc-origin-image.image"
+style="border:0;border-radius:0;display:block;outline:0;text-decoration:none;height:auto;width:100%;font-size:13px"
+width="600"&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;&lt;/tbody&gt;&lt;/table&gt;&lt;/td&gt;&lt;/tr&gt;&lt;/tbody&gt;&lt;/table&gt;&lt;/div&gt;
+&lt;!--[if mso | IE]&gt;&lt;![endif]--&gt;&lt;/td&gt;&lt;/tr&gt;&lt;/tbody&gt;&lt;/table&gt;&lt;/div&gt;
+&lt;!--[if mso | IE]&gt;&lt;![endif]--&gt;&lt;/td&gt;&lt;/tr&gt;&lt;/tbody&gt;&lt;/table&gt;&lt;/div&gt;
+&lt;!--[if mso | IE]&gt;&lt;table border="0"cellpadding="0"cellspacing="0"role="presentation"
+style="width:600px"align="center"width="600"bgcolor="#FFFFFF"&gt;&lt;tr&gt;&lt;td 
+style="line-height:0;font-size:0;mso-line-height-rule:exactly"&gt;&lt;![endif]--&gt;
+&lt;div 
+style="background:#fff;background-color:#fff;margin:0 auto;max-width:600px"&gt;
+&lt;table border="0"cellpadding="0"cellspacing="0"role="presentation"
+style="background:#fff;background-color:#fff;width:100%"align="center"&gt;&lt;tbody&gt;
+&lt;tr&gt;&lt;td style="direction:ltr;font-size:0;padding:0;text-align:left"&gt;
+&lt;!--[if mso | IE]&gt;&lt;table border="0"cellpadding="0"cellspacing="0"role="presentation"&gt;&lt;tr&gt;&lt;td 
+style="vertical-align:top;width:600px"&gt;&lt;![endif]--&gt;&lt;div 
+class="mj-column-per-100 mj-outlook-group-fix"
+style="font-size:0;text-align:left;direction:ltr;display:inline-block;vertical-align:top;width:100%"&gt;
+&lt;table border="0"cellpadding="0"cellspacing="0"role="presentation"
+style="vertical-align:top"width="100%"&gt;&lt;tbody&gt;&lt;tr&gt;&lt;td 
+style="background:#000;font-size:0;padding:16px 16px 16px 16px;word-break:break-word"
+align="left"&gt;&lt;div 
+style="font-family:ProximaNova,Helvetica,Arial,sans-serif,'Segoe UI',Roboto,Oxygen,Ubuntu,Cantarell,'Fira Sans','Droid Sans','Helvetica Neue';font-size:14px;font-weight:400;line-height:1.2;text-align:left;
+color:#fff"&gt;&lt;div data-docx-has-block-data="false"
+data-page-id="F8EUdrVDooTGq5xwWdyldMbqgHB"&gt;&lt;div 
+class="ace-line ace-line old-record-id-ZWpZdYTYfoo6hpxPOS5lsNsVgig"&gt;&lt;div 
+data-docx-has-block-data="false"data-page-id="F8EUdrVDooTGq5xwWdyldMbqgHB"&gt;
+&lt;div class="ace-line ace-line old-record-id-ZWpZdYTYfoo6hpxPOS5lsNsVgig"&gt;&lt;div 
+data-docx-has-block-data="false"data-page-id="HRmSd0KP7oYxDtxRgD7ltb7Gg0f"
+data-lark-html-role="root"&gt;&lt;div 
+class="ace-line ace-line old-record-id-B8ewdztpmoCkEvx1SvOlND6jg0f"
+style="white-space:normal"&gt;&lt;div data-docx-has-block-data="false"
+data-page-id="C1GLdPdbLoFmo2xtbUlliXRMgdI"data-lark-html-role="root"&gt;&lt;div 
+class="ace-line ace-line old-record-id-doxlgi1twhdUppYcZXnJOfhYhGe"
+style="white-space:normal"&gt;&lt;div data-docx-has-block-data="false"
+data-page-id="GLNRd6EQVo9D9zxivZ3lefmPgmg"data-lark-html-role="root"&gt;&lt;div 
+class="ace-line ace-line old-record-id-HlgOdnirAoABKaxFuAvlcSXMgGf"&gt;&lt;div 
+data-docx-has-block-data="false"data-page-id="S1Y4d5GTJoOCgoxo5nilIP3wgYo"
+data-lark-html-role="root"&gt;&lt;div 
+class="ace-line ace-line old-record-id-doxlgVJiChlTouwx8TkhT7BDfBb"&gt;&lt;div 
+data-docx-has-block-data="false"data-page-id="LfXhdOZzPowL3rxry1Ml8d2Xgmb"
+data-lark-html-role="root"&gt;&lt;div 
+class="ace-line ace-line old-record-id-RH79dJRtLo4XvyxlWgYlpaL1g63"
+style="text-align:left"&gt;&lt;div data-docx-has-block-data="false"
+data-page-id="JvFEdNNPxo2vv2xyUzhlUFzqgXf"data-lark-html-role="root"&gt;&lt;div 
+class="ace-line ace-line old-record-id-UM5xdRId8oXg2mxJH8FlDCsDgST"
+style="text-align:left"&gt;&lt;div data-docx-has-block-data="false"
+data-page-id="NcYXdeLi8o1a67xWHHdlIXdog8c"data-lark-html-role="root"&gt;&lt;div 
+class="ace-line ace-line old-record-id-doxlgQmSZS7SsoMIr9yllrAZ3ch"
+style="text-align:left"&gt;&lt;div data-docx-has-block-data="false"
+data-page-id="NcYXdeLi8o1a67xWHHdlIXdog8c"data-lark-html-role="root"&gt;&lt;div 
+class="ace-line ace-line old-record-id-doxlgAlHkprYeScy0O7H4dFJxZf"
+style="text-align:left"&gt;&lt;div data-docx-has-block-data="false"
+data-page-id="DWmsdRjpCo0CeAx011il1heRgch"data-lark-html-role="root"&gt;&lt;div 
+class="ace-line ace-line old-record-id-doxlgGDMveGZRCItUp9tRNnlAlc"&gt;&lt;div 
+data-docx-has-block-data="false"data-page-id="JbFOdi3yHoXxZNxPbqzlvSvdgUf"
+data-lark-html-role="root"&gt;&lt;div 
+class="ace-line ace-line old-record-id-doxlgmeyvIv4DlebnTEQDezVoXK"&gt;&lt;div 
+data-docx-has-block-data="false"data-page-id="S1Y4d5GTJoOCgoxo5nilIP3wgYo"
+data-lark-html-role="root"&gt;&lt;div 
+class="ace-line ace-line old-record-id-doxlgVJiChlTouwx8TkhT7BDfBb"&gt;&lt;div 
+data-docx-has-block-data="false"data-page-id="S1Y4d5GTJoOCgoxo5nilIP3wgYo"
+data-lark-html-role="root"&gt;&lt;div 
+class="ace-line ace-line old-record-id-doxlgEJOsC0szcrnsyomUMiokBc"&gt;&lt;div 
+data-docx-has-block-data="false"data-page-id="CRJ4dbwUfomxGOxdJJvlZ7NHgGg"
+data-lark-html-role="root"&gt;&lt;div 
+class="ace-line ace-line old-record-id-YZWidHOWMowxOAxR8xdlprzsgkZ"
+style="text-align:left"&gt;&lt;div data-docx-has-block-data="false"
+data-page-id="CRJ4dbwUfomxGOxdJJvlZ7NHgGg"data-lark-html-role="root"&gt;&lt;div 
+class="ace-line ace-line old-record-id-A9dldIbbpo5ZlRxrJidlHlYJgfE"
+style="text-align:left"&gt;&lt;div data-docx-has-block-data="false"
+data-page-id="TldddCL6hoyoztxbkwXlpUcugKb"data-lark-html-role="root"&gt;&lt;div 
+class="ace-line ace-line old-record-id-PVMYdwqeXoecm7xyg8Jl7RuLgWg"&gt;&lt;div 
+data-docx-has-block-data="false"data-page-id="TldddCL6hoyoztxbkwXlpUcugKb"
+data-lark-html-role="root"&gt;&lt;div 
+class="ace-line ace-line old-record-id-OAjZdAnjxoOHYPxsZ7Ml8OExgod"&gt;&lt;div 
+data-docx-has-block-data="false"data-page-id="YThVdj9NVonBlXxfihTlWyAJgWf"
+data-lark-html-role="root"&gt;&lt;div 
+class="ace-line ace-line old-record-id-doxlgP3AGemn179rBpn19EvGbig"&gt;&lt;div 
+data-docx-has-block-data="false"data-page-id="YThVdj9NVonBlXxfihTlWyAJgWf"
+data-lark-html-role="root"&gt;&lt;div 
+class="ace-line ace-line old-record-id-doxlghmGLMrp8C33UXMCHrZbbRh"&gt;&lt;div 
+data-docx-has-block-data="false"data-page-id="BMxwdEXiAoBvBbxekZolVNGdg0d"
+data-lark-html-role="root"&gt;&lt;div 
+class="ace-line ace-line old-record-id-doxlgG6eYmWm52Xd000z7iGXahd"&gt;&lt;div 
+data-docx-has-block-data="false"data-page-id="GS4idobOHosMYgx0bIClk0OSgUb"
+data-lark-html-role="root"&gt;&lt;div 
+class="ace-line ace-line old-record-id-GacRdtOLMoeIVKxhFKMl3EJ9gjb"&gt;&lt;div 
+data-docx-has-block-data="false"data-page-id="AL6VdLFckojjawxAUuqln8M3gjz"
+data-lark-html-role="root"&gt;&lt;div 
+class="ace-line ace-line old-record-id-DZ6YdF49foML7IxmdQmlmt28gmc"
+style="text-align:left"&gt;&lt;div data-docx-has-block-data="false"
+data-page-id="YJ9Odo7I8o2ExrxHdFllPNSygZJ"data-lark-html-role="root"&gt;&lt;div 
+class="ace-line ace-line old-record-id-doxlgd67QwOmjmLI6HycUTLJNDh"
+style="text-align:center"&gt;&lt;div data-docx-has-block-data="false"
+data-page-id="YJ9Odo7I8o2ExrxHdFllPNSygZJ"data-lark-html-role="root"&gt;&lt;div 
+class="ace-line ace-line old-record-id-doxlgm5O2i9sylLQUXwNCFtpzDJ"
+style="text-align:left"&gt;&lt;div data-docx-has-block-data="false"
+data-page-id="YJ9Odo7I8o2ExrxHdFllPNSygZJ"data-lark-html-role="root"&gt;&lt;div 
+class="ace-line ace-line old-record-id-doxlgi8jYAazrRsVCJcCbc4cJad"
+style="text-align:center"&gt;&lt;div data-docx-has-block-data="false"
+data-page-id="WkoZdrzJfoY7Ygxb342ldYOngJc"data-lark-html-role="root"&gt;&lt;div 
+class="ace-line ace-line old-record-id-ZJvhd28ZOooJY4xHoArlvMLTg6c"&gt;&lt;div 
+data-docx-has-block-data="false"data-page-id="XhkadJY7PorMT5xW5T5ltQJug1g"
+data-lark-html-role="root"&gt;&lt;div 
+class="ace-line ace-line old-record-id-RbHVd58oOoSVmJxofoYlKgLdgBc"&gt;&lt;div 
+data-docx-has-block-data="false"data-page-id="XhkadJY7PorMT5xW5T5ltQJug1g"
+data-lark-html-role="root"&gt;&lt;div 
+class="ace-line ace-line old-record-id-HYDpdqw7zoxlJNxTIhylO4ECgfb"
+style="text-align:left"&gt;Chào Nhà Bán Hàng TikTok Shop,&lt;/div&gt;&lt;div 
+class="ace-line ace-line old-record-id-HYDpdqw7zoxlJNxTIhylO4ECgfb"
+style="text-align:left"&gt;&lt;br&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div 
+class="ace-line ace-line old-record-id-RbHVd58oOoSVmJxofoYlKgLdgBc"&gt;
+Bạn muốn bùng nổ doanh thu bằng cách tận dụng các chiến dịch hiện có của TikTok Shop?
+&lt;/div&gt;&lt;div class="ace-line ace-line old-record-id-U0UGd7mv0oogwsxzmApl0h6igng"
+style="text-align:left"&gt;
+Cùng gặp gỡ Khách mời đặc biệt là chị Linh Chi đến đến từ Ngành hàng Mẹ và Bé để có những chia sẻ kinh nghiệm bán hàng kết hợp với các chiến dịch của Michi Baby Shop!
+&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div 
+class="ace-line ace-line old-record-id-HVuxdlcLCoLltFxX2Yql4Dwwgae"
+style="text-align:left"&gt;&lt;div data-docx-has-block-data="false"
+data-page-id="WkoZdrzJfoY7Ygxb342ldYOngJc"data-lark-html-role="root"&gt;&lt;div 
+class="ace-line ace-line old-record-id-JF9mdZVgeoIMUjxzLaclB1wJgDh"&gt;&lt;br&gt;&lt;/div&gt;
+&lt;div class="ace-line ace-line old-record-id-YDBVdTrEUoKxbhxyVXqlY7FGg4b"&gt;&lt;div 
+data-docx-has-block-data="false"data-page-id="XhkadJY7PorMT5xW5T5ltQJug1g"
+data-lark-html-role="root"&gt;&lt;div 
+class="ace-line ace-line old-record-id-NIwTdI04NodxNqxsIWglqy6RgDe"&gt;&lt;div 
+data-docx-has-block-data="false"data-page-id="XhkadJY7PorMT5xW5T5ltQJug1g"
+data-lark-html-role="root"&gt;&lt;div 
+class="ace-line ace-line old-record-id-NIwTdI04NodxNqxsIWglqy6RgDe"&gt;&lt;b&gt;
+Nội dung hội thảo đặc biệt bao gồm:&lt;/b&gt;&lt;/div&gt;&lt;div 
+class="ace-line ace-line old-record-id-KR6GdGVkno7aM1xDhU3lsTdQgQf"&gt;
+_xD83C__xDF1F_ Các chiến dịch hiện có của TikTok Shop.&lt;/div&gt;&lt;div 
+class="ace-line ace-line old-record-id-Fshod0GQNolDjAx5hl3l34pPgr5"&gt;
+_xD83C__xDF1F_ Học hỏi chiến lược vận hành cho ngày thường và ngày Sale.&lt;/div&gt;&lt;div 
+class="ace-line ace-line old-record-id-CEOAdyaUTopgOkxMgAqlUJXvg62"&gt;
+_xD83C__xDF1F_ Nâng cao chỉ số vận hành của shop, dễ dàng tham gia các Chiến dịch lớn từ TikTok Shop.
+&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div 
+class="ace-line ace-line old-record-id-U9Qcd0cquoyVt7xX6P5lOQRSgHh"&gt;&lt;br&gt;&lt;/div&gt;
+&lt;div class="ace-line ace-line old-record-id-LLnod0M9ToThQ5xuDXQlBUfSgvb"&gt;
+Hãy tham gia cùng Khách mời đặc biệt và Đội ngũ chuyên gia của TikTok Shop để khám phá những bí kíp giúp bạn tăng doanh thu và thành công trong mùa sale này!
+&lt;/div&gt;&lt;div 
+class="ace-line ace-line old-record-id-AlyEdqUPhosuUNxGnFsliIiSgKd"&gt;&lt;br&gt;&lt;/div&gt;
+&lt;div class="ace-line ace-line old-record-id-MxjfdcvzDoCBdSxHIzQlhKoxg7b"&gt;
+_xD83C__xDFAF_ Đăng ký ngay để nhận những mẹo chiến lược hiệu quả: &lt;a 
+href="https://m.tiktok.shop/s/AJ5aj7R51R9J"
+style="color:inherit;text-decoration:none"data-lark-is-custom="true"&gt;&lt;font 
+color="#25f4ee"&gt;https://m.tiktok.shop/s/AIqNpksuCrNa&lt;/font&gt;&lt;/a&gt;&lt;/div&gt;&lt;div 
+class="ace-line ace-line old-record-id-ZM1ddVBW1orqdrxdc9UlIYbYghb"&gt;&lt;br&gt;&lt;/div&gt;
+&lt;div class="ace-line ace-line old-record-id-MypTdOMA3oYZJqxUZVXlo4xkgjh"&gt;
+_xD83D__xDCC5_ Thời gian: Thứ Tư - Ngày 23/10/2024&lt;/div&gt;&lt;div 
+class="ace-line ace-line old-record-id-Y81edBC1YoGAB8x423Jl863igTf"&gt;
+_xD83D__xDD52_ Giờ: 14:00 - 15:30&lt;/div&gt;&lt;div 
+class="ace-line ace-line old-record-id-AAjsdMfnuohMipxwaNYl2d8mgGs"&gt;
+_xD83D__xDEA9_ Địa điểm: Ứng dụng ZOOM&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;
+&lt;/div&gt;&lt;div class="ace-line ace-line old-record-id-doxlgEOqlCEdTRUuNF0igI7pF1c"
+style="text-align:left"&gt;&lt;br&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;
+&lt;/div&gt;&lt;div 
+class="ace-line ace-line old-record-id-doxlgnw36ccBq187hELRrl2oupd"&gt;&lt;strong&gt;
+&lt;font color="#fe2c55"&gt;(*) Lưu ý:&lt;/font&gt;&lt;/strong&gt;&lt;/div&gt;&lt;ul class="list-bullet1"
+start="1"&gt;&lt;li 
+class="ace-line ace-line old-record-id-doxlgmVSu8XyB9LUyWY1t7nAkMy"
+data-list="bullet"&gt;
+Số lượng người tham dự tại ZOOM có giới hạn. Nhanh tay đăng kí qua đường dẫn PHÍA TRÊN hoặc QUÉT QR trên hình.
+&lt;/li&gt;&lt;li class="ace-line ace-line old-record-id-doxlgyuuXaCwOGpXIKsGGDhcSAf"
+data-list="bullet"style="text-align:left"&gt;
+Ngoài ra, các Nhà Bán Hàng có thể theo dõi và đăng kí tham gia trọn bộ lịch Hội thảo tháng 10/2024 
+&lt;strong&gt;&lt;a 
+href="https://m.tiktok.shop/s/AJ5aj7R5qaFW"
+style="text-decoration:none;color:inherit"data-lark-is-custom="true"
+tabindex="-1"&gt;&lt;font color="#25f4ee"&gt;Ở ĐÂY&lt;/font&gt; &lt;/a&gt;&lt;/strong&gt;
+với đa dạng các chủ đề kinh doanh tại TikTok Shop!&lt;/li&gt;&lt;/ul&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;
+&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;
+&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;
+&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;
+&lt;/td&gt;&lt;/tr&gt;&lt;/tbody&gt;&lt;/table&gt;&lt;/div&gt;&lt;!--[if mso | IE]&gt;&lt;![endif]--&gt;&lt;/td&gt;&lt;/tr&gt;
+&lt;/tbody&gt;&lt;/table&gt;&lt;/div&gt;
+&lt;!--[if mso | IE]&gt;&lt;table border="0"cellpadding="0"cellspacing="0"role="presentation"
+style="width:600px"align="center"width="600"bgcolor="#FFFFFF"&gt;&lt;tr&gt;&lt;td 
+style="line-height:0;font-size:0;mso-line-height-rule:exactly"&gt;&lt;![endif]--&gt;
+&lt;div 
+style="background:#fff;background-color:#fff;margin:0 auto;max-width:600px"&gt;
+&lt;table border="0"cellpadding="0"cellspacing="0"role="presentation"
+style="background:#fff;background-color:#fff;width:100%"align="center"&gt;&lt;tbody&gt;
+&lt;tr&gt;&lt;td style="direction:ltr;font-size:0;padding:0;text-align:left"&gt;
+&lt;!--[if mso | IE]&gt;&lt;table border="0"cellpadding="0"cellspacing="0"role="presentation"&gt;&lt;tr&gt;&lt;td 
+style="vertical-align:top;width:600px"&gt;&lt;![endif]--&gt;&lt;div 
+class="mj-column-per-100 mj-outlook-group-fix"
+style="font-size:0;text-align:left;direction:ltr;display:inline-block;vertical-align:top;width:100%"&gt;
+&lt;table border="0"cellpadding="0"cellspacing="0"role="presentation"
+style="vertical-align:top"width="100%"&gt;&lt;tbody&gt;&lt;tr&gt;&lt;td 
+style="font-size:0;padding:0;word-break:break-word"align="center"&gt;&lt;table 
+border="0"cellpadding="0"cellspacing="0"role="presentation"
+style="border-collapse:collapse;border-spacing:0"&gt;&lt;tbody&gt;&lt;tr&gt;&lt;td 
+style="width:600px"&gt;&lt;a 
+href="https://m.tiktok.shop/s/AJ5aj7R5qaFW"
+target="_blank"&gt;&lt;img height="auto"
+src="https://p16-oec-sg.ibyteimg.com/tos-alisg-i-aphluv4xwc-sg/9f45ce184e3e44798f65c762c52553c6~tplv-aphluv4xwc-origin-image.image"
+style="border:0;border-radius:0;display:block;outline:0;text-decoration:none;height:auto;width:100%;font-size:13px"
+width="600"&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;&lt;/tbody&gt;&lt;/table&gt;&lt;/td&gt;&lt;/tr&gt;&lt;/tbody&gt;&lt;/table&gt;&lt;/div&gt;
+&lt;!--[if mso | IE]&gt;&lt;![endif]--&gt;&lt;/td&gt;&lt;/tr&gt;&lt;/tbody&gt;&lt;/table&gt;&lt;/div&gt;
+&lt;!--[if mso | IE]&gt;&lt;table border="0"cellpadding="0"cellspacing="0"role="presentation"
+style="width:600px"align="center"width="600"bgcolor="#FFFFFF"&gt;&lt;tr&gt;&lt;td 
+style="line-height:0;font-size:0;mso-line-height-rule:exactly"&gt;&lt;![endif]--&gt;
+&lt;div 
+style="background:#fff;background-color:#fff;margin:0 auto;max-width:600px"&gt;
+&lt;table border="0"cellpadding="0"cellspacing="0"role="presentation"
+style="background:#fff;background-color:#fff;width:100%"align="center"&gt;&lt;tbody&gt;
+&lt;tr&gt;&lt;td style="direction:ltr;font-size:0;padding:0;text-align:left"&gt;
+&lt;!--[if mso | IE]&gt;&lt;table border="0"cellpadding="0"cellspacing="0"role="presentation"&gt;&lt;tr&gt;&lt;td 
+style="vertical-align:top;width:600px"&gt;&lt;![endif]--&gt;&lt;div 
+class="mj-column-per-100 mj-outlook-group-fix"
+style="font-size:0;text-align:left;direction:ltr;display:inline-block;vertical-align:top;width:100%"&gt;
+&lt;table border="0"cellpadding="0"cellspacing="0"role="presentation"
+style="vertical-align:top"width="100%"&gt;&lt;tbody&gt;&lt;tr&gt;&lt;td 
+style="background:#000;font-size:0;padding:16px 16px 16px 16px;word-break:break-word"
+align="left"&gt;&lt;div 
+style="font-family:ProximaNova,Helvetica,Arial,sans-serif,'Segoe UI',Roboto,Oxygen,Ubuntu,Cantarell,'Fira Sans','Droid Sans','Helvetica Neue';font-size:14px;font-weight:400;line-height:1.2;text-align:left;
+color:#fff"&gt;&lt;div 
+class="ace-line ace-line old-record-id-XltDdMWeRofLT3xGmaBlVznkgIf"
+style="--hover-color:rgb(var(--primary-4, #1890ff));--selected-color:rgb(var(--primary-6, #1890ff));color:#fbfbfb;text-align:left"&gt;
+&lt;/div&gt;&lt;div data-docx-has-block-data="false"
+data-page-id="F8EUdrVDooTGq5xwWdyldMbqgHB"&gt;&lt;div 
+data-docx-has-block-data="false"data-page-id="WsCMda7xQooYDpxdmlmlhs1kged"&gt;
+&lt;div data-docx-has-block-data="false"
+data-page-id="Ok8QdDx3DokmBpxGvgelzxhLgxf"&gt;&lt;div 
+data-docx-has-block-data="false"data-page-id="JgkBdfK5to1neaxonA8ls88KgVf"&gt;
+&lt;div data-docx-has-block-data="false"
+data-page-id="F8EUdrVDooTGq5xwWdyldMbqgHB"&gt;&lt;div 
+class="old-record-id-doxlgyfHLq5DMujbYfi9ISDzaGN"style="white-space:normal"&gt;
+&lt;div data-docx-has-block-data="false"
+data-page-id="NcYXdeLi8o1a67xWHHdlIXdog8c"data-lark-html-role="root"&gt;&lt;div 
+class="ace-line ace-line old-record-id-doxlgMjyZBgv7t2cJzfVJzk3WAg"
+style="text-align:left"&gt;&lt;div data-docx-has-block-data="false"
+data-page-id="YThVdj9NVonBlXxfihTlWyAJgWf"data-lark-html-role="root"&gt;&lt;div 
+class="ace-line ace-line old-record-id-doxlgG6Agiy0X35uYwCmyg7Xgqb"&gt;&lt;div 
+class="ace-line ace-line old-record-id-NOOSdu8TIoM1zjx9zPSlDMBhg0c"
+style="--hover-color:rgb(var(--primary-4, #1890ff));--selected-color:rgb(var(--primary-6, #1890ff))"&gt;
+&lt;div data-docx-has-block-data="false"
+data-page-id="WkoZdrzJfoY7Ygxb342ldYOngJc"data-lark-html-role="root"&gt;&lt;div 
+class="ace-line ace-line old-record-id-Npk0due0OoJUo5xrai7lKAQDgoc"&gt;
+Hẹn gặp bạn tại buổi hội thảo!&lt;/div&gt;&lt;div 
+class="ace-line ace-line old-record-id-Npk0due0OoJUo5xrai7lKAQDgoc"&gt;&lt;br&gt;&lt;/div&gt;
+&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div 
+class="ace-line ace-line old-record-id-doxlgG6Agiy0X35uYwCmyg7Xgqb"&gt;&lt;span 
+style="word-spacing:normal"&gt;Trân trọng,&lt;/span&gt;&lt;br&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;
+&lt;/div&gt;&lt;/div&gt;&lt;div 
+class="ace-line ace-line old-record-id-doxlg78S7ZkxVhlD3Wg7wVm7NCd"
+style="text-align:left"&gt;&lt;strong style="word-spacing:normal"&gt;Đội Ngũ &lt;/strong&gt;
+&lt;strong style="word-spacing:normal"&gt;TikTok Shop&lt;/strong&gt;&lt;br&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;
+&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;/td&gt;&lt;/tr&gt;&lt;/tbody&gt;&lt;/table&gt;&lt;/div&gt;
+&lt;!--[if mso | IE]&gt;&lt;![endif]--&gt;&lt;/td&gt;&lt;/tr&gt;&lt;/tbody&gt;&lt;/table&gt;&lt;/div&gt;
+&lt;!--[if mso | IE]&gt;&lt;table border="0"cellpadding="0"cellspacing="0"role="presentation"
+style="width:600px"align="center"width="600"bgcolor="#FFFFFF"&gt;&lt;tr&gt;&lt;td 
+style="line-height:0;font-size:0;mso-line-height-rule:exactly"&gt;&lt;![endif]--&gt;
+&lt;div 
+style="background:#fff;background-color:#fff;margin:0 auto;max-width:600px"&gt;
+&lt;table border="0"cellpadding="0"cellspacing="0"role="presentation"
+style="background:#fff;background-color:#fff;width:100%"align="center"&gt;&lt;tbody&gt;
+&lt;tr&gt;&lt;td style="direction:ltr;font-size:0;padding:0;text-align:left"&gt;
+&lt;!--[if mso | IE]&gt;&lt;table border="0"cellpadding="0"cellspacing="0"role="presentation"&gt;&lt;tr&gt;&lt;td 
+style="vertical-align:top;width:600px"&gt;&lt;![endif]--&gt;&lt;div 
+class="mj-column-per-100 mj-outlook-group-fix"
+style="font-size:0;text-align:left;direction:ltr;display:inline-block;vertical-align:top;width:100%"&gt;
+&lt;table border="0"cellpadding="0"cellspacing="0"role="presentation"
+style="vertical-align:top"width="100%"&gt;&lt;tbody&gt;&lt;tr&gt;&lt;td 
+style="font-size:0;padding:0;word-break:break-word"align="center"&gt;&lt;table 
+border="0"cellpadding="0"cellspacing="0"role="presentation"
+style="border-collapse:collapse;border-spacing:0"&gt;&lt;tbody&gt;&lt;tr&gt;&lt;td 
+style="width:600px"&gt;&lt;a 
+href="https://m.tiktok.shop/s/AJ5aj7R6OgJg"
+target="_blank"&gt;&lt;img height="auto"
+src="https://p16-oec-sg.ibyteimg.com/tos-alisg-i-aphluv4xwc-sg/b86fe2bc24ff4702b5212e9a67bd6133~tplv-aphluv4xwc-origin-image.image"
+style="border:0;border-radius:0;display:block;outline:0;text-decoration:none;height:auto;width:100%;font-size:13px"
+width="600"&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;&lt;/tbody&gt;&lt;/table&gt;&lt;/td&gt;&lt;/tr&gt;&lt;/tbody&gt;&lt;/table&gt;&lt;/div&gt;
+&lt;!--[if mso | IE]&gt;&lt;![endif]--&gt;&lt;/td&gt;&lt;/tr&gt;&lt;/tbody&gt;&lt;/table&gt;&lt;/div&gt;
+&lt;!--[if mso | IE]&gt;&lt;table border="0"cellpadding="0"cellspacing="0"role="presentation"
+style="width:600px"align="center"width="600"bgcolor="#000000"&gt;&lt;tr&gt;&lt;td 
+style="line-height:0;font-size:0;mso-line-height-rule:exactly"&gt;&lt;![endif]--&gt;
+&lt;div 
+style="background:#000;background-color:#000;margin:0 auto;max-width:600px"&gt;
+&lt;table border="0"cellpadding="0"cellspacing="0"role="presentation"
+style="background:#000;background-color:#000;width:100%"align="center"&gt;&lt;tbody&gt;
+&lt;tr&gt;&lt;td 
+style="border:none;direction:ltr;font-size:0;padding:20px 0 20px 0;text-align:center"&gt;
+&lt;!--[if mso | IE]&gt;&lt;table border="0"cellpadding="0"cellspacing="0"role="presentation"&gt;&lt;tr&gt;&lt;td 
+width="600px"&gt;&lt;table border="0"cellpadding="0"cellspacing="0"
+role="presentation"style="width:600px"align="center"width="600"
+bgcolor="#000000"&gt;&lt;tr&gt;&lt;td 
+style="line-height:0;font-size:0;mso-line-height-rule:exactly"&gt;&lt;![endif]--&gt;
+&lt;div 
+style="background:#000;background-color:#000;margin:0 auto;max-width:600px"&gt;
+&lt;table border="0"cellpadding="0"cellspacing="0"role="presentation"
+style="background:#000;background-color:#000;width:100%"align="center"&gt;&lt;tbody&gt;
+&lt;tr&gt;&lt;td 
+style="border:none;direction:ltr;font-size:0;padding:0;text-align:center"&gt;
+&lt;!--[if mso | IE]&gt;&lt;table border="0"cellpadding="0"cellspacing="0"role="presentation"&gt;&lt;tr&gt;&lt;td 
+align="center"
+class="node-contenteditable-type-text-outlook node-contenteditable-idx-content.children.[5].data.value.title-outlook"&gt;&lt;![endif]--&gt;
+&lt;div 
+style="font-family:ProximaNova,Helvetica,Arial,sans-serif,'Segoe UI',Roboto,Oxygen,Ubuntu,Cantarell,'Fira Sans','Droid Sans','Helvetica Neue';font-size:14px;font-weight:400px;line-height:1;text-align:
+center;color:#fbfbfb"&gt;
+Nếu bạn muốn thay đổi cách bạn nhận được những email này hoặc ngừng nhận email từ TikTok Shop, bạn có thể nhấp vào 
+&lt;a href="https://seller.tiktokglobalshop.com/m/email/unsubscribe?msg_category_type=3040000&amp;amp;channel_type=3&amp;amp;biz_id=1&amp;amp;is_marketing=true&amp;amp;is_main_account=true&amp;amp;country=704&amp;amp;business_type=1&amp;amp;is_task_center=1&amp;amp;task_edition=5037175316483&amp;amp;token=jO1bqyzLkHGK8fBAotrZ7Oh1OfZW/L9F9cpdZOe6bL1q68ik7mIwse9MJPt07iXO"
+style="color:#fbfbfb;font-weight:700;text-decoration:underline"&gt;đây&lt;/a&gt;
+. Đối với tài khoản phụ, vui lòng đăng nhập bằng tài khoản chủ sở hữu để thay đổi cài đặt.
+&lt;/div&gt;&lt;!--[if mso | IE]&gt;&lt;![endif]--&gt;&lt;/td&gt;&lt;/tr&gt;&lt;/tbody&gt;&lt;/table&gt;&lt;/div&gt;
+&lt;!--[if mso | IE]&gt;&lt;![endif]--&gt;&lt;/td&gt;&lt;/tr&gt;&lt;/tbody&gt;&lt;/table&gt;&lt;/div&gt;
+&lt;!--[if mso | IE]&gt;&lt;![endif]--&gt;&lt;/div&gt;&lt;img src="http://url7465.shop.tiktok.com/wf/open?upn=u001.EHqfYjOIHj-2B321qG8kw28q0lvGjRlSjliPesDCZkWeTn4fuM4s3WslwudV4RvNxEe56B9jDOVvVlxDRZPanqruTVywUruYD3xGVjFjppPvLjYqCsaiNVRVeUxv-2B4ymcfhIoNtTqddSqurmMyCXFfr7Cb5ReYEq52qFMsCcRHwe5TI1mtb9qgg4VRPxv4wFr-2Fn-2FeNrRrsDG-2BZb0lN-2Fh6CxjV3duUnBqTTa1RFchgVSA-2FJHbIw8d31KoPLNfgt34s2IErJEhjqSeU-2BSfmYlKuczg-2B8QuoEjcJ6m-2BhRlWfuzVxgTftmDZnqyUZZkNE9xWZm6MbqC0UJ0h7vJ-2Fl1jBGoQor0i62hXjaPAb-2Btp6DZvoyqzayzq0q8zIeuAJ-2Fm-2F9aoeMIrJj-2BT6VZB-2FA-2FC0omdQA-3D-3D" alt="" width="1" height="1" border="0" style="height:1px !important;width:1px !important;border-width:0 !important;margin-top:0 !important;margin-bottom:0 !important;margin-right:0 !important;margin-left:0 !important;padding-top:0 !important;padding-bottom:0 !important;padding-right:0 !important;padding-left:0 !important;"/&gt;&lt;/body&gt;&lt;/html&gt;
+</x:t>
   </x:si>
 </x:sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<x:styleSheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<x:styleSheet xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac x16r2 xr">
   <x:numFmts count="1">
     <x:numFmt numFmtId="0" formatCode=""/>
   </x:numFmts>
-  <x:fonts count="1">
+  <x:fonts count="1" x14ac:knownFonts="1">
     <x:font>
-      <x:vertAlign val="baseline"/>
       <x:sz val="11"/>
       <x:color rgb="FF000000"/>
       <x:name val="Calibri"/>
@@ -59,38 +910,36 @@
     </x:fill>
   </x:fills>
   <x:borders count="1">
-    <x:border diagonalUp="0" diagonalDown="0">
-      <x:left style="none">
-        <x:color rgb="FF000000"/>
-      </x:left>
-      <x:right style="none">
-        <x:color rgb="FF000000"/>
-      </x:right>
-      <x:top style="none">
-        <x:color rgb="FF000000"/>
-      </x:top>
-      <x:bottom style="none">
-        <x:color rgb="FF000000"/>
-      </x:bottom>
-      <x:diagonal style="none">
-        <x:color rgb="FF000000"/>
-      </x:diagonal>
+    <x:border>
+      <x:left/>
+      <x:right/>
+      <x:top/>
+      <x:bottom/>
+      <x:diagonal/>
     </x:border>
   </x:borders>
   <x:cellStyleXfs count="1">
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0"/>
   </x:cellStyleXfs>
-  <x:cellXfs count="1">
+  <x:cellXfs count="2">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellXfs>
   <x:cellStyles count="1">
     <x:cellStyle name="Normal" xfId="0" builtinId="0"/>
   </x:cellStyles>
+  <x:tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <x:extLst>
+    <x:ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </x:ext>
+    <x:ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </x:ext>
+  </x:extLst>
 </x:styleSheet>
 </file>
 
@@ -378,17 +1227,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{00000000-0001-0000-0000-000000000000}" mc:Ignorable="x14ac xr xr2 xr3">
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:F2"/>
+  <x:dimension ref="A1:E1"/>
   <x:sheetViews>
-    <x:sheetView workbookViewId="0"/>
+    <x:sheetView tabSelected="1" workbookViewId="0"/>
   </x:sheetViews>
-  <x:sheetFormatPr defaultRowHeight="15"/>
+  <x:sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <x:sheetData>
-    <x:row r="1" spans="1:6">
+    <x:row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <x:c r="A1" s="0" t="s">
         <x:v>0</x:v>
       </x:c>
@@ -401,11 +1250,93 @@
       <x:c r="D1" s="0" t="s">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="E1" s="0" t="s">
+      <x:c r="E1" s="1" t="s">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="F1" s="0" t="s">
+    </x:row>
+    <x:row r="2" spans="1:5">
+      <x:c r="A2" s="0" t="s">
         <x:v>5</x:v>
+      </x:c>
+      <x:c r="B2" s="0" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="C2" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D2" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="E2" s="1" t="s">
+        <x:v>9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:5">
+      <x:c r="A3" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="B3" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="C3" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D3" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="E3" s="1" t="s">
+        <x:v>13</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:5">
+      <x:c r="A4" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="B4" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="C4" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="D4" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="E4" s="1" t="s">
+        <x:v>18</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="1:5">
+      <x:c r="A5" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="B5" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="C5" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="D5" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E5" s="1" t="s">
+        <x:v>23</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6" spans="1:5">
+      <x:c r="A6" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="B6" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="C6" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="D6" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="E6" s="1" t="s">
+        <x:v>27</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/File/SubSheet.xlsx
+++ b/File/SubSheet.xlsx
@@ -25,6 +25,12 @@
     <x:t>From</x:t>
   </x:si>
   <x:si>
+    <x:t>Name</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mail</x:t>
+  </x:si>
+  <x:si>
     <x:t>Subject</x:t>
   </x:si>
   <x:si>
@@ -37,39 +43,119 @@
     <x:t>1</x:t>
   </x:si>
   <x:si>
-    <x:t>Fri, 25 Oct 2024 20:09:00 -0700</x:t>
-  </x:si>
-  <x:si>
-    <x:t>"Microsoft Outlook" &lt;nennhayen@gmail.com&gt;</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Microsoft Outlook Test Message</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">This is an e-mail message sent automatically by Microsoft Outlook while testing the settings for your account.
+    <x:t>Sat, 26 Oct 2024 11:03:11 +0700</x:t>
+  </x:si>
+  <x:si>
+    <x:t>"Nguyễn Thị Mai Bình" &lt;maibinh6223@gmail.com&gt;</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Nguyễn Thị Mai Bình</x:t>
+  </x:si>
+  <x:si>
+    <x:t>maibinh6223@gmail.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Kính gửi bộ phận hỗ trợ,
+Tôi là Lan Anh. Tôi vừa mua sản phẩm Máy Rửa Chén Bát Độc Lập Bosch 13 bộ
+SMS4EKI06E- Series 4, màu inox bạc từ hệ thống của quý công ty và gặp một
+số vấn đề như sau:
+Vấn đề gặp phải:
+  *
+Mô tả vấn đề:
+Tôi gặp phải vấn đề với máy rửa chén bát Bosch 13 bộ SMS4EKI06E mà tôi vừa
+mua. Cụ thể, khi tôi khởi động máy, nó không bắt đầu quá trình rửa mặc dù
+đã cài đặt chương trình. Đèn báo lỗi ""E1"" cũng xuất hiện, điều này có thể
+cho thấy vấn đề liên quan đến việc cấp nước. Tôi đã kiểm tra nguồn nước và
+đảm bảo rằng máy được kết nối đúng cách.
+Ngoài ra, tôi còn nhận thấy máy phát ra tiếng ồn lạ trong quá trình hoạt
+động, và khi rửa xong, chén bát vẫn còn dính lại nhiều vết bẩn.
+Mong quý công ty hướng dẫn tôi cách khắc phục hoặc sắp xếp nhân viên đến
+kiểm tra máy.
+Tôi mong nhận được sự hỗ trợ từ quý công ty để giải quyết vấn đề này sớm
+nhất có thể. Quý công ty có thể liên hệ với tôi qua email này hoặc số điện
+thoại 0123 456 789.
+Rất mong nhận được phản hồi từ quý công ty.
+Trân trọng,
 </x:t>
   </x:si>
   <x:si>
     <x:t>2</x:t>
   </x:si>
   <x:si>
-    <x:t>Fri, 25 Oct 2024 07:42:43 +0000</x:t>
+    <x:t>Sun, 20 Oct 2024 13:37:30 +0000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>"Thùy Dung Trần" &lt;thuydungtran018@gmail.com&gt;</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Thùy Dung Trần</x:t>
+  </x:si>
+  <x:si>
+    <x:t>thuydungtran018@gmail.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Yêu cầu hỗ trợ về sản phẩm Máy Rửa Chén Bát Độc Lập Bosch 13 bộ SMS4EKI06E- Series 4, màu inox bạc</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Kính gửi bộ phận hỗ trợ,
+Tôi là Lan Anh. Tôi vừa mua sản phẩm Máy Rửa Chén Bát Độc Lập Bosch 13 bộ SMS4EKI06E- Series 4, màu inox bạc từ hệ thống của quý công ty và gặp một số vấn đề như sau:
+Vấn đề gặp phải:
+  *
+Mô tả vấn đề:
+Tôi gặp phải vấn đề với máy rửa chén bát Bosch 13 bộ SMS4EKI06E mà tôi vừa mua. Cụ thể, khi tôi khởi động máy, nó không bắt đầu quá trình rửa mặc dù đã cài đặt chương trình. Đèn báo lỗi "E1" cũng xuất hiện, điều này có thể cho thấy vấn đề liên quan đến việc cấp nước. Tôi đã kiểm tra nguồn nước và đảm bảo rằng máy được kết nối đúng cách.
+Ngoài ra, tôi còn nhận thấy máy phát ra tiếng ồn lạ trong quá trình hoạt động, và khi rửa xong, chén bát vẫn còn dính lại nhiều vết bẩn.
+Mong quý công ty hướng dẫn tôi cách khắc phục hoặc sắp xếp nhân viên đến kiểm tra máy.
+Tôi mong nhận được sự hỗ trợ từ quý công ty để giải quyết vấn đề này sớm nhất có thể. Quý công ty có thể liên hệ với tôi qua email này hoặc số điện thoại 0123 456 789.
+Rất mong nhận được phản hồi từ quý công ty.
+Trân trọng,
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sun, 20 Oct 2024 13:42:48 +0000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Yêu cầu hỗ trợ về sản phẩm Máy Hút Bụi Cầm Tay</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Kính gửi bộ phận hỗ trợ,
+Tôi là Chung Nguyễn. Tôi vừa mua sản phẩm Máy Hút Bụi Cầm Tay từ hệ thống của quý công ty và gặp phải một số vấn đề trong quá trình thanh toán như sau:
+Khi tôi thực hiện thanh toán cho đơn hàng máy hút bụi, hệ thống báo lỗi và không cho phép tôi hoàn tất giao dịch. Tôi đã thử thanh toán bằng nhiều phương thức khác nhau (thẻ tín dụng, ví điện tử), nhưng đều gặp phải tình trạng tương tự. Do đó, tôi không thể xác nhận đơn hàng và không nhận được thông tin xác nhận nào từ quý công ty.
+Ngày mua hàng: 18/10/2024
+Mã đơn hàng: 18259526
+Tôi mong nhận được sự hỗ trợ từ quý công ty để giải quyết vấn đề này càng sớm càng tốt, để tôi có thể hoàn tất đơn hàng của mình.
+Rất mong nhận được phản hồi từ quý công ty.
+Trân trọng,
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sun, 20 Oct 2024 13:14:29 +0000</x:t>
   </x:si>
   <x:si>
     <x:t>"Google" &lt;no-reply@accounts.google.com&gt;</x:t>
   </x:si>
   <x:si>
+    <x:t>Google</x:t>
+  </x:si>
+  <x:si>
+    <x:t>no-reply@accounts.google.com</x:t>
+  </x:si>
+  <x:si>
     <x:t>Security alert</x:t>
   </x:si>
   <x:si>
     <x:t xml:space="preserve">[image: Google]
-A new sign-in on Windows
+Microsoft apps &amp; services was granted access to your Google Account
 nennhayen@gmail.com
-We noticed a new sign-in to your Google Account on a Windows device. If
-this was you, you don’t need to do anything. If not, we’ll help you secure
-your account.
+If you did not grant access, you should check this activity and secure your
+account.
 Check activity
-&lt;https://accounts.google.com/AccountChooser?Email=nennhayen@gmail.com&amp;continue=https://myaccount.google.com/alert/nt/1729842163000?rfn%3D325%26rfnc%3D1%26eid%3D9073786827477861291%26et%3D0&gt;
+&lt;https://accounts.google.com/AccountChooser?Email=nennhayen@gmail.com&amp;continue=https://myaccount.google.com/alert/nt/1729430069000?rfn%3D127%26rfnc%3D1%26eid%3D7829833809947364935%26et%3D0&gt;
 You can also see security activity at
 https://myaccount.google.com/notifications
 You received this email to let you know about important changes to your
@@ -78,13 +164,19 @@
 </x:t>
   </x:si>
   <x:si>
-    <x:t>3</x:t>
+    <x:t>5</x:t>
   </x:si>
   <x:si>
     <x:t>Thu, 24 Oct 2024 16:01:43 +0800</x:t>
   </x:si>
   <x:si>
     <x:t>"Lazada Vietnam" &lt;noreply@support.lazada.vn&gt;</x:t>
+  </x:si>
+  <x:si>
+    <x:t>"Lazada Vietnam"</x:t>
+  </x:si>
+  <x:si>
+    <x:t>noreply@support.lazada.vn</x:t>
   </x:si>
   <x:si>
     <x:t>Policy: Inactive seller (Holiday Mode)</x:t>
@@ -106,52 +198,6 @@
 &lt;p&gt;&lt;span style="font-size:12pt"&gt;&lt;span new="" roman="" style="font-family:" times=""&gt;&lt;span style="font-size:10.0pt"&gt;&lt;span calibri="" style="font-family:"&gt;Best regards, &lt;br /&gt;
 Lazada Vietnam&lt;/span&gt;&lt;/span&gt;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;
 &lt;div style="display:none"&gt;&lt;img style="display:none" src="http://gm.mmstat.com/global-message-platform-ae.edm.edm_open?site_id=VN&amp;t=1729756903362&amp;msg_id=91281fd3-08bc-4b8c-822a-345e00643473&amp;template_name=Policy_Inactive Seller T-1_Notification-0_VN&amp;to_address=nennhayen@gmail.com"/&gt;&lt;/div&gt;&lt;div style="display:none"&gt;&lt;img style="display:none" src="https://sg.mmstat.com/lzdseller.email-engagement.api-tracking?gmkey=EXP&amp;gokey=site_id%3DVN%26t%3D1729756903362%26msg_id%3D91281fd3-08bc-4b8c-822a-345e00643473%26mq_msg_id%3D21016D63588A609E076579E2BF8B79B6%26to_address%3Dnennhayen%40gmail.com%26requirement_id%3D489%26template_id%3D4540%26template_name%3DPolicy_Inactive+Seller+T-1_Notification-0_VN&amp;logtype=2"/&gt;&lt;/div&gt;</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Sun, 20 Oct 2024 13:37:30 +0000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>"Thùy Dung Trần" &lt;thuydungtran018@gmail.com&gt;</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Yêu cầu hỗ trợ về sản phẩm Máy Rửa Chén Bát Độc Lập Bosch 13 bộ SMS4EKI06E- Series 4, màu inox bạc</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">Kính gửi bộ phận hỗ trợ,
-Tôi là Lan Anh. Tôi vừa mua sản phẩm Máy Rửa Chén Bát Độc Lập Bosch 13 bộ SMS4EKI06E- Series 4, màu inox bạc từ hệ thống của quý công ty và gặp một số vấn đề như sau:
-Vấn đề gặp phải:
-  *
-Mô tả vấn đề:
-Tôi gặp phải vấn đề với máy rửa chén bát Bosch 13 bộ SMS4EKI06E mà tôi vừa mua. Cụ thể, khi tôi khởi động máy, nó không bắt đầu quá trình rửa mặc dù đã cài đặt chương trình. Đèn báo lỗi "E1" cũng xuất hiện, điều này có thể cho thấy vấn đề liên quan đến việc cấp nước. Tôi đã kiểm tra nguồn nước và đảm bảo rằng máy được kết nối đúng cách.
-Ngoài ra, tôi còn nhận thấy máy phát ra tiếng ồn lạ trong quá trình hoạt động, và khi rửa xong, chén bát vẫn còn dính lại nhiều vết bẩn.
-Mong quý công ty hướng dẫn tôi cách khắc phục hoặc sắp xếp nhân viên đến kiểm tra máy.
-Tôi mong nhận được sự hỗ trợ từ quý công ty để giải quyết vấn đề này sớm nhất có thể. Quý công ty có thể liên hệ với tôi qua email này hoặc số điện thoại 0123 456 789.
-Rất mong nhận được phản hồi từ quý công ty.
-Trân trọng,
-</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Sun, 20 Oct 2024 13:42:48 +0000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Yêu cầu hỗ trợ về sản phẩm Máy Hút Bụi Cầm Tay</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">Kính gửi bộ phận hỗ trợ,
-Tôi là Chung Nguyễn. Tôi vừa mua sản phẩm Máy Hút Bụi Cầm Tay từ hệ thống của quý công ty và gặp phải một số vấn đề trong quá trình thanh toán như sau:
-Khi tôi thực hiện thanh toán cho đơn hàng máy hút bụi, hệ thống báo lỗi và không cho phép tôi hoàn tất giao dịch. Tôi đã thử thanh toán bằng nhiều phương thức khác nhau (thẻ tín dụng, ví điện tử), nhưng đều gặp phải tình trạng tương tự. Do đó, tôi không thể xác nhận đơn hàng và không nhận được thông tin xác nhận nào từ quý công ty.
-Ngày mua hàng: 18/10/2024
-Mã đơn hàng: 18259526
-Tôi mong nhận được sự hỗ trợ từ quý công ty để giải quyết vấn đề này càng sớm càng tốt, để tôi có thể hoàn tất đơn hàng của mình.
-Rất mong nhận được phản hồi từ quý công ty.
-Trân trọng,
-</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -506,13 +552,13 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:F2"/>
+  <x:dimension ref="A1:H2"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:sheetData>
-    <x:row r="1" spans="1:6">
+    <x:row r="1" spans="1:8">
       <x:c r="A1" s="0" t="s">
         <x:v>0</x:v>
       </x:c>
@@ -531,90 +577,123 @@
       <x:c r="F1" s="0" t="s">
         <x:v>5</x:v>
       </x:c>
+      <x:c r="G1" s="0" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="H1" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
     </x:row>
-    <x:row r="2" spans="1:6">
+    <x:row r="2" spans="1:8">
       <x:c r="A2" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="B2" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="C2" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="D2" s="0" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="E2" s="1" t="s">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="E2" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="G2" s="1" t="s">
+        <x:v>13</x:v>
       </x:c>
     </x:row>
-    <x:row r="3" spans="1:6">
+    <x:row r="3" spans="1:8">
       <x:c r="A3" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="B3" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C3" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="D3" s="0" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="E3" s="1" t="s">
-        <x:v>15</x:v>
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="E3" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="F3" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="G3" s="1" t="s">
+        <x:v>20</x:v>
       </x:c>
     </x:row>
-    <x:row r="4" spans="1:6">
+    <x:row r="4" spans="1:8">
       <x:c r="A4" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="B4" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="C4" s="0" t="s">
         <x:v>16</x:v>
       </x:c>
-      <x:c r="B4" s="0" t="s">
+      <x:c r="D4" s="0" t="s">
         <x:v>17</x:v>
       </x:c>
-      <x:c r="C4" s="0" t="s">
+      <x:c r="E4" s="0" t="s">
         <x:v>18</x:v>
       </x:c>
-      <x:c r="D4" s="0" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="E4" s="1" t="s">
-        <x:v>20</x:v>
+      <x:c r="F4" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="G4" s="1" t="s">
+        <x:v>24</x:v>
       </x:c>
     </x:row>
-    <x:row r="5" spans="1:6">
+    <x:row r="5" spans="1:8">
       <x:c r="A5" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="B5" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="C5" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="D5" s="0" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="E5" s="1" t="s">
-        <x:v>25</x:v>
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="E5" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="F5" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="G5" s="1" t="s">
+        <x:v>31</x:v>
       </x:c>
     </x:row>
-    <x:row r="6" spans="1:6">
+    <x:row r="6" spans="1:8">
       <x:c r="A6" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="B6" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="C6" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="D6" s="0" t="s">
-        <x:v>28</x:v>
-      </x:c>
-      <x:c r="E6" s="1" t="s">
-        <x:v>29</x:v>
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="E6" s="0" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="F6" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="G6" s="1" t="s">
+        <x:v>38</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/File/SubSheet.xlsx
+++ b/File/SubSheet.xlsx
@@ -25,12 +25,6 @@
     <x:t>From</x:t>
   </x:si>
   <x:si>
-    <x:t>Name</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mail</x:t>
-  </x:si>
-  <x:si>
     <x:t>Subject</x:t>
   </x:si>
   <x:si>
@@ -43,16 +37,37 @@
     <x:t>1</x:t>
   </x:si>
   <x:si>
+    <x:t>Sat, 26 Oct 2024 04:26:02 +0000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>"Google" &lt;no-reply@accounts.google.com&gt;</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Security alert</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">[image: Google]
+App password created to sign in to your account
+nennhayen@gmail.com
+If you didn't generate this password for Sendmail, someone might be using
+your account. Check and secure your account now.
+Check activity
+&lt;https://accounts.google.com/AccountChooser?Email=nennhayen@gmail.com&amp;continue=https://myaccount.google.com/alert/nt/1729916762411?rfn%3D20%26rfnc%3D1%26eid%3D2585404366186269778%26et%3D0&gt;
+You can also see security activity at
+https://myaccount.google.com/notifications
+You received this email to let you know about important changes to your
+Google Account and services.
+© 2024 Google LLC, 1600 Amphitheatre Parkway, Mountain View, CA 94043, USA
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2</x:t>
+  </x:si>
+  <x:si>
     <x:t>Sat, 26 Oct 2024 11:03:11 +0700</x:t>
   </x:si>
   <x:si>
     <x:t>"Nguyễn Thị Mai Bình" &lt;maibinh6223@gmail.com&gt;</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Nguyễn Thị Mai Bình</x:t>
-  </x:si>
-  <x:si>
-    <x:t>maibinh6223@gmail.com</x:t>
   </x:si>
   <x:si>
     <x:t xml:space="preserve">Kính gửi bộ phận hỗ trợ,
@@ -79,19 +94,13 @@
 </x:t>
   </x:si>
   <x:si>
-    <x:t>2</x:t>
+    <x:t>3</x:t>
   </x:si>
   <x:si>
     <x:t>Sun, 20 Oct 2024 13:37:30 +0000</x:t>
   </x:si>
   <x:si>
     <x:t>"Thùy Dung Trần" &lt;thuydungtran018@gmail.com&gt;</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Thùy Dung Trần</x:t>
-  </x:si>
-  <x:si>
-    <x:t>thuydungtran018@gmail.com</x:t>
   </x:si>
   <x:si>
     <x:t>Yêu cầu hỗ trợ về sản phẩm Máy Rửa Chén Bát Độc Lập Bosch 13 bộ SMS4EKI06E- Series 4, màu inox bạc</x:t>
@@ -111,7 +120,7 @@
 </x:t>
   </x:si>
   <x:si>
-    <x:t>3</x:t>
+    <x:t>4</x:t>
   </x:si>
   <x:si>
     <x:t>Sun, 20 Oct 2024 13:42:48 +0000</x:t>
@@ -131,22 +140,10 @@
 </x:t>
   </x:si>
   <x:si>
-    <x:t>4</x:t>
+    <x:t>5</x:t>
   </x:si>
   <x:si>
     <x:t>Sun, 20 Oct 2024 13:14:29 +0000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>"Google" &lt;no-reply@accounts.google.com&gt;</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Google</x:t>
-  </x:si>
-  <x:si>
-    <x:t>no-reply@accounts.google.com</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Security alert</x:t>
   </x:si>
   <x:si>
     <x:t xml:space="preserve">[image: Google]
@@ -162,42 +159,6 @@
 Google Account and services.
 © 2024 Google LLC, 1600 Amphitheatre Parkway, Mountain View, CA 94043, USA
 </x:t>
-  </x:si>
-  <x:si>
-    <x:t>5</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Thu, 24 Oct 2024 16:01:43 +0800</x:t>
-  </x:si>
-  <x:si>
-    <x:t>"Lazada Vietnam" &lt;noreply@support.lazada.vn&gt;</x:t>
-  </x:si>
-  <x:si>
-    <x:t>"Lazada Vietnam"</x:t>
-  </x:si>
-  <x:si>
-    <x:t>noreply@support.lazada.vn</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Policy: Inactive seller (Holiday Mode)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>&lt;p id="u9951d5f7"&gt; &lt;/p&gt;
-&lt;p id="u5baee0d4"&gt;&lt;img id="ed7lA" src="https://intranetproxy.alipay.com/skylark/lark/0/2022/png/48956351/1669201155248-42ab56dc-aa34-41c5-b03d-2ff702ab448e.png" width="940" /&gt;&lt;/p&gt;
-&lt;p&gt;&lt;span style="font-size:12pt"&gt;&lt;span new="" roman="" style="font-family:" times=""&gt;&lt;span style="font-size:10.0pt"&gt;&lt;span calibri="" style="font-family:"&gt;Thân gửi &lt;/span&gt;&lt;/span&gt;&lt;/span&gt;&lt;/span&gt;Nến Nhà Yên ( VN345D0BTN ),&lt;/p&gt;
-&lt;p&gt;&lt;span style="font-size:12pt"&gt;&lt;span new="" roman="" style="font-family:" times=""&gt;&lt;span style="font-size:10.0pt"&gt;&lt;span calibri="" style="font-family:"&gt;Đã hơn 89 ngày bạn không đăng nhập vào gian hàng của mình?&lt;/span&gt;&lt;/span&gt;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;
-&lt;p&gt;&lt;span style="font-size:12pt"&gt;&lt;span new="" roman="" style="font-family:" times=""&gt;&lt;span style="font-size:10.0pt"&gt;&lt;span calibri="" style="font-family:"&gt;Để giúp duy trì sự cạnh tranh với các gian hàng khác đồng thời đảm bảo việc xử lý đơn hàng, phản hồi người mua kịp thời, Lazada khuyến khích bạn đăng nhập vào gian hàng thường xuyên để cập nhật hàng tồn kho, khuyến mãi và giá bán mới.&lt;/span&gt;&lt;/span&gt;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;
-&lt;p&gt;&lt;span style="font-size:12pt"&gt;&lt;span new="" roman="" style="font-family:" times=""&gt;&lt;span style="font-size:10.0pt"&gt;&lt;span calibri="" style="font-family:"&gt;Nhằm đảm bảo trải nghiệm của người mua, gian hàng của bạn có thể sẽ tự động bật &lt;b&gt;"Chế độ nghỉ lễ"&lt;/b&gt; nếu tiếp tục không đăng nhập vào gian hàng. Tìm hiểu thêm thông tin [&lt;/span&gt;&lt;/span&gt;&lt;a href="https://sellercenter.lazada.vn/seller/helpcenter/chinh-sach-ve-nha-ban-hang-khong-hoat-dong-8176.html" style="color:blue; text-decoration:underline"&gt;&lt;span style="font-size:10.0pt"&gt;&lt;span calibri="" style="font-family:"&gt;tại đây&lt;/span&gt;&lt;/span&gt;&lt;/a&gt;&lt;span style="font-size:10.0pt"&gt;&lt;span calibri="" style="font-family:"&gt;]&lt;/span&gt;&lt;/span&gt;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;
-&lt;p&gt;&lt;span style="font-size:12pt"&gt;&lt;span new="" roman="" style="font-family:" times=""&gt;&lt;span style="font-size:10.0pt"&gt;&lt;span calibri="" style="font-family:"&gt;Cảm ơn sự hợp tác của bạn&lt;/span&gt;&lt;/span&gt;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;
-&lt;p&gt;&lt;span style="font-size:12pt"&gt;&lt;span new="" roman="" style="font-family:" times=""&gt;&lt;span style="font-size:10.0pt"&gt;&lt;span calibri="" style="font-family:"&gt;Đội ngũ Lazada Việt Nam&lt;/span&gt;&lt;/span&gt;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;
-&lt;hr id="gD6cB" /&gt;
-&lt;p&gt;&lt;span style="font-size:12pt"&gt;&lt;span new="" roman="" style="font-family:" times=""&gt;&lt;span style="font-size:10.0pt"&gt;&lt;span calibri="" style="font-family:"&gt;Dear &lt;/span&gt;&lt;/span&gt;&lt;/span&gt;&lt;/span&gt;Nến Nhà Yên ( VN345D0BTN ),&lt;/p&gt;
-&lt;p&gt;&lt;span style="font-size:12pt"&gt;&lt;span new="" roman="" style="font-family:" times=""&gt;&lt;span style="font-size:10.0pt"&gt;&lt;span calibri="" style="font-family:"&gt;Our records show that your seller account has been inactive for &lt;b&gt;over 89 days&lt;/b&gt; and we kindly request that you log in regularly to update your inventory, promotions and prices. This will help you maintain the competitiveness of your listings within our platform.&lt;/span&gt;&lt;/span&gt;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;
-&lt;p&gt;&lt;span style="font-size:12pt"&gt;&lt;span new="" roman="" style="font-family:" times=""&gt;&lt;span style="font-size:10.0pt"&gt;&lt;span calibri="" style="font-family:"&gt;To ensure that your buyers' experience is not compromised, your seller account may have &lt;/span&gt;&lt;/span&gt;&lt;a href="https://sellercenter.lazada.vn/seller/helpcenter/chinh-sach-ve-nha-ban-hang-khong-hoat-dong-8176.html" style="color:blue; text-decoration:underline" target="_blank"&gt;&lt;span style="font-size:10.0pt"&gt;&lt;span calibri="" style="font-family:"&gt;Holiday Mode&lt;/span&gt;&lt;/span&gt;&lt;/a&gt;&lt;span style="font-size:10.0pt"&gt;&lt;span calibri="" style="font-family:"&gt; turned on by next week if it continues to be inactive. We urge you to take action and keep your account active now. Click &lt;/span&gt;&lt;/span&gt;&lt;a href="https://sellercenter.lazada.vn/seller/helpcenter/chinh-sach-ve-nha-ban-hang-khong-hoat-dong-8176.html" style="color:blue; text-decoration:underline" target="_blank"&gt;&lt;span style="font-size:10.0pt"&gt;&lt;span calibri="" style="font-family:"&gt;here&lt;/span&gt;&lt;/span&gt;&lt;/a&gt;&lt;span style="font-size:10.0pt"&gt;&lt;span calibri="" style="font-family:"&gt; to learn more.&lt;/span&gt;&lt;/span&gt;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;
-&lt;p&gt;&lt;span style="font-size:12pt"&gt;&lt;span new="" roman="" style="font-family:" times=""&gt;&lt;span style="font-size:10.0pt"&gt;&lt;span calibri="" style="font-family:"&gt;Thank you.&lt;/span&gt;&lt;/span&gt;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;
-&lt;p&gt;&lt;span style="font-size:12pt"&gt;&lt;span new="" roman="" style="font-family:" times=""&gt;&lt;span style="font-size:10.0pt"&gt;&lt;span calibri="" style="font-family:"&gt;Best regards, &lt;br /&gt;
-Lazada Vietnam&lt;/span&gt;&lt;/span&gt;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;
-&lt;div style="display:none"&gt;&lt;img style="display:none" src="http://gm.mmstat.com/global-message-platform-ae.edm.edm_open?site_id=VN&amp;t=1729756903362&amp;msg_id=91281fd3-08bc-4b8c-822a-345e00643473&amp;template_name=Policy_Inactive Seller T-1_Notification-0_VN&amp;to_address=nennhayen@gmail.com"/&gt;&lt;/div&gt;&lt;div style="display:none"&gt;&lt;img style="display:none" src="https://sg.mmstat.com/lzdseller.email-engagement.api-tracking?gmkey=EXP&amp;gokey=site_id%3DVN%26t%3D1729756903362%26msg_id%3D91281fd3-08bc-4b8c-822a-345e00643473%26mq_msg_id%3D21016D63588A609E076579E2BF8B79B6%26to_address%3Dnennhayen%40gmail.com%26requirement_id%3D489%26template_id%3D4540%26template_name%3DPolicy_Inactive+Seller+T-1_Notification-0_VN&amp;logtype=2"/&gt;&lt;/div&gt;</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -552,13 +513,13 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:H2"/>
+  <x:dimension ref="A1:F2"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:sheetData>
-    <x:row r="1" spans="1:8">
+    <x:row r="1" spans="1:6">
       <x:c r="A1" s="0" t="s">
         <x:v>0</x:v>
       </x:c>
@@ -577,123 +538,87 @@
       <x:c r="F1" s="0" t="s">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="G1" s="0" t="s">
+    </x:row>
+    <x:row r="2" spans="1:6">
+      <x:c r="A2" s="0" t="s">
         <x:v>6</x:v>
       </x:c>
-      <x:c r="H1" s="0" t="s">
+      <x:c r="B2" s="0" t="s">
         <x:v>7</x:v>
       </x:c>
+      <x:c r="C2" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="D2" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="E2" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
     </x:row>
-    <x:row r="2" spans="1:8">
-      <x:c r="A2" s="0" t="s">
+    <x:row r="3" spans="1:6">
+      <x:c r="A3" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="B3" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="C3" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="E3" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:6">
+      <x:c r="A4" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="B4" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="C4" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="D4" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="E4" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="1:6">
+      <x:c r="A5" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B5" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C5" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="D5" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E5" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6" spans="1:6">
+      <x:c r="A6" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="B6" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="C6" s="0" t="s">
         <x:v>8</x:v>
       </x:c>
-      <x:c r="B2" s="0" t="s">
+      <x:c r="D6" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
-      <x:c r="C2" s="0" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="D2" s="0" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="E2" s="0" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="G2" s="1" t="s">
-        <x:v>13</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="3" spans="1:8">
-      <x:c r="A3" s="0" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="B3" s="0" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="C3" s="0" t="s">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="D3" s="0" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="E3" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="F3" s="0" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="G3" s="1" t="s">
-        <x:v>20</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="4" spans="1:8">
-      <x:c r="A4" s="0" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="B4" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="C4" s="0" t="s">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="D4" s="0" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="E4" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="F4" s="0" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="G4" s="1" t="s">
-        <x:v>24</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="5" spans="1:8">
-      <x:c r="A5" s="0" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="B5" s="0" t="s">
+      <x:c r="E6" s="0" t="s">
         <x:v>26</x:v>
-      </x:c>
-      <x:c r="C5" s="0" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="D5" s="0" t="s">
-        <x:v>28</x:v>
-      </x:c>
-      <x:c r="E5" s="0" t="s">
-        <x:v>29</x:v>
-      </x:c>
-      <x:c r="F5" s="0" t="s">
-        <x:v>30</x:v>
-      </x:c>
-      <x:c r="G5" s="1" t="s">
-        <x:v>31</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="6" spans="1:8">
-      <x:c r="A6" s="0" t="s">
-        <x:v>32</x:v>
-      </x:c>
-      <x:c r="B6" s="0" t="s">
-        <x:v>33</x:v>
-      </x:c>
-      <x:c r="C6" s="0" t="s">
-        <x:v>34</x:v>
-      </x:c>
-      <x:c r="D6" s="0" t="s">
-        <x:v>35</x:v>
-      </x:c>
-      <x:c r="E6" s="0" t="s">
-        <x:v>36</x:v>
-      </x:c>
-      <x:c r="F6" s="0" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="G6" s="1" t="s">
-        <x:v>38</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/File/SubSheet.xlsx
+++ b/File/SubSheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\Documents\UiPath\RPA_Final\.templates\File\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\OneDrive\Tài liệu\UiPath\RPA_Final\File\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFE78925-11D5-4049-B3B6-E2BFC9EEA0FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68D4E1AE-4B38-403A-83D7-4CE929BCF41F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6015" yWindow="1530" windowWidth="21600" windowHeight="12990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SubSheet" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="38">
   <si>
     <t>ID</t>
   </si>
@@ -49,122 +49,147 @@
     <t>1</t>
   </si>
   <si>
-    <t>Sat, 26 Oct 2024 11:03:11 +0700</t>
-  </si>
-  <si>
-    <t>"Nguyễn Thị Mai Bình" &lt;maibinh6223@gmail.com&gt;</t>
-  </si>
-  <si>
-    <t>Nguyễn Thị Mai Bình</t>
-  </si>
-  <si>
-    <t>maibinh6223@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kính gửi bộ phận hỗ trợ,
-Tôi là Lan Anh. Tôi vừa mua sản phẩm Máy Rửa Chén Bát Độc Lập Bosch 13 bộ
-SMS4EKI06E- Series 4, màu inox bạc từ hệ thống của quý công ty và gặp một
-số vấn đề như sau:
-Vấn đề gặp phải:
-  *
-Mô tả vấn đề:
-Tôi gặp phải vấn đề với máy rửa chén bát Bosch 13 bộ SMS4EKI06E mà tôi vừa
-mua. Cụ thể, khi tôi khởi động máy, nó không bắt đầu quá trình rửa mặc dù
-đã cài đặt chương trình. Đèn báo lỗi ""E1"" cũng xuất hiện, điều này có thể
-cho thấy vấn đề liên quan đến việc cấp nước. Tôi đã kiểm tra nguồn nước và
-đảm bảo rằng máy được kết nối đúng cách.
-Ngoài ra, tôi còn nhận thấy máy phát ra tiếng ồn lạ trong quá trình hoạt
-động, và khi rửa xong, chén bát vẫn còn dính lại nhiều vết bẩn.
-Mong quý công ty hướng dẫn tôi cách khắc phục hoặc sắp xếp nhân viên đến
-kiểm tra máy.
-Tôi mong nhận được sự hỗ trợ từ quý công ty để giải quyết vấn đề này sớm
-nhất có thể. Quý công ty có thể liên hệ với tôi qua email này hoặc số điện
-thoại 0123 456 789.
-Rất mong nhận được phản hồi từ quý công ty.
+    <t>Mon, 28 Oct 2024 12:35:23 +0700</t>
+  </si>
+  <si>
+    <t>"Đông Phạm Trương Thu" &lt;dongptt21411@st.uel.edu.vn&gt;</t>
+  </si>
+  <si>
+    <t>Đông Phạm Trương Thu</t>
+  </si>
+  <si>
+    <t>dongptt21411@st.uel.edu.vn</t>
+  </si>
+  <si>
+    <t>Yêu cầu hỗ trợ sửa chữa sản phẩm Bếp điện từ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kính gửi NNY,
+Tôi là Nguyễn Khánh Linh. Sản phẩm Bếp điện từ của tôi (mã SKU: BDT-2023)
+bị lỗi không nóng dù đã thử nhiều mức nhiệt khác nhau.
+Ngày mua: 18/06/2023
+Mã đơn hàng: DH15005
+Xin vui lòng hỗ trợ kiểm tra và sửa chữa. Quý công ty có thể liên hệ với
+tôi qua email hoặc số điện thoại 0941234567.
 Trân trọng,
+SĐT: 0941234567
+*Pham Truong Thu Dong*
+University of Economics and Law (VNU - HCMC)
+Faculty of Information System
+Phone: 0842456510
 </t>
   </si>
   <si>
     <t>2</t>
   </si>
   <si>
-    <t>Sun, 20 Oct 2024 13:37:30 +0000</t>
-  </si>
-  <si>
-    <t>"Thùy Dung Trần" &lt;thuydungtran018@gmail.com&gt;</t>
-  </si>
-  <si>
-    <t>Thùy Dung Trần</t>
-  </si>
-  <si>
-    <t>thuydungtran018@gmail.com</t>
-  </si>
-  <si>
-    <t>Yêu cầu hỗ trợ về sản phẩm Máy Rửa Chén Bát Độc Lập Bosch 13 bộ SMS4EKI06E- Series 4, màu inox bạc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kính gửi bộ phận hỗ trợ,
-Tôi là Lan Anh. Tôi vừa mua sản phẩm Máy Rửa Chén Bát Độc Lập Bosch 13 bộ SMS4EKI06E- Series 4, màu inox bạc từ hệ thống của quý công ty và gặp một số vấn đề như sau:
-Vấn đề gặp phải:
-  *
-Mô tả vấn đề:
-Tôi gặp phải vấn đề với máy rửa chén bát Bosch 13 bộ SMS4EKI06E mà tôi vừa mua. Cụ thể, khi tôi khởi động máy, nó không bắt đầu quá trình rửa mặc dù đã cài đặt chương trình. Đèn báo lỗi "E1" cũng xuất hiện, điều này có thể cho thấy vấn đề liên quan đến việc cấp nước. Tôi đã kiểm tra nguồn nước và đảm bảo rằng máy được kết nối đúng cách.
-Ngoài ra, tôi còn nhận thấy máy phát ra tiếng ồn lạ trong quá trình hoạt động, và khi rửa xong, chén bát vẫn còn dính lại nhiều vết bẩn.
-Mong quý công ty hướng dẫn tôi cách khắc phục hoặc sắp xếp nhân viên đến kiểm tra máy.
-Tôi mong nhận được sự hỗ trợ từ quý công ty để giải quyết vấn đề này sớm nhất có thể. Quý công ty có thể liên hệ với tôi qua email này hoặc số điện thoại 0123 456 789.
-Rất mong nhận được phản hồi từ quý công ty.
+    <t>Mon, 28 Oct 2024 12:35:12 +0700</t>
+  </si>
+  <si>
+    <t>Hỗ trợ kỹ thuật sản phẩm Lò nướng</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kính gửi NNY,
+Sản phẩm Lò nướng của tôi (mã SKU: LN-2022) bị tắt đột ngột sau khoảng 5
+phút sử dụng và không thể bật lại được.
+Ngày mua: 22/07/2023
+Mã đơn hàng: DH14004
+Mong nhận được hỗ trợ sớm nhất. Vui lòng liên hệ qua số điện thoại
+0912123456 hoặc email này.
 Trân trọng,
+SĐT: 0912123456
+*Pham Truong Thu Dong*
+University of Economics and Law (VNU - HCMC)
+Faculty of Information System
+Phone: 0842456510
 </t>
   </si>
   <si>
     <t>3</t>
   </si>
   <si>
-    <t>Sun, 20 Oct 2024 13:42:48 +0000</t>
-  </si>
-  <si>
-    <t>Yêu cầu hỗ trợ về sản phẩm Máy Hút Bụi Cầm Tay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kính gửi bộ phận hỗ trợ,
-Tôi là Chung Nguyễn. Tôi vừa mua sản phẩm Máy Hút Bụi Cầm Tay từ hệ thống của quý công ty và gặp phải một số vấn đề trong quá trình thanh toán như sau:
-Khi tôi thực hiện thanh toán cho đơn hàng máy hút bụi, hệ thống báo lỗi và không cho phép tôi hoàn tất giao dịch. Tôi đã thử thanh toán bằng nhiều phương thức khác nhau (thẻ tín dụng, ví điện tử), nhưng đều gặp phải tình trạng tương tự. Do đó, tôi không thể xác nhận đơn hàng và không nhận được thông tin xác nhận nào từ quý công ty.
-Ngày mua hàng: 18/10/2024
-Mã đơn hàng: 18259526
-Tôi mong nhận được sự hỗ trợ từ quý công ty để giải quyết vấn đề này càng sớm càng tốt, để tôi có thể hoàn tất đơn hàng của mình.
-Rất mong nhận được phản hồi từ quý công ty.
+    <t>Mon, 28 Oct 2024 12:34:27 +0700</t>
+  </si>
+  <si>
+    <t>"My Hà" &lt;imhaanh17@gmail.com&gt;</t>
+  </si>
+  <si>
+    <t>My Hà</t>
+  </si>
+  <si>
+    <t>imhaanh17@gmail.com</t>
+  </si>
+  <si>
+    <t>Yêu cầu hỗ trợ về sản phẩm Điều hòa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kính gửi NNY,
+Điều hòa của tôi (mã SKU: DA-2023) gặp lỗi không làm lạnh, dù đã chỉnh
+nhiệt độ thấp nhưng không thấy sự thay đổi.
+Ngày mua: 15/08/2023
+Mã đơn hàng: DH13003
+Vui lòng hướng dẫn cách giải quyết hoặc cử kỹ thuật viên kiểm tra. Liên hệ
+qua email này hoặc số điện thoại 0972345678.
 Trân trọng,
+SĐT: 0972345678
 </t>
   </si>
   <si>
     <t>4</t>
   </si>
   <si>
-    <t xml:space="preserve">Kính gửi bộ phận hỗ trợ,
-Tôi là Lan Anh. Tôi vừa mua sản phẩm Máy Rửa Chén Bát Độc Lập Bosch 13 bộ SMS4EKI06E- Series 4, màu inox bạc từ hệ thống của quý công ty và gặp một số vấn đề như sau:
-Vấn đề gặp phải:
-  *
-Mô tả vấn đề:
-Tôi gặp phải vấn đề với máy rửa chén bát Bosch 13 bộ SMS4EKI06E mà tôi vừa mua. Cụ thể, khi tôi khởi động máy, nó không bắt đầu quá trình rửa mặc dù đã cài đặt chương trình. Đèn báo lỗi "E1" cũng xuất hiện, điều này có thể cho thấy vấn đề liên quan đến việc cấp nước. Tôi đã kiểm tra nguồn nước và đảm bảo rằng máy được kết nối đúng cách.
-Ngoài ra, tôi còn nhận thấy máy phát ra tiếng ồn lạ trong quá trình hoạt động, và khi rửa xong, chén bát vẫn còn dính lại nhiều vết bẩn.
-Mong quý công ty hướng dẫn tôi cách khắc phục hoặc sắp xếp nhân viên đến kiểm tra máy.
-Tôi mong nhận được sự hỗ trợ từ quý công ty để giải quyết vấn đề này sớm nhất có thể. Quý công ty có thể liên hệ với tôi qua email này hoặc số điện thoại 0123 456 789.
-Rất mong nhận được phản hồi từ quý công ty.
+    <t>Mon, 28 Oct 2024 12:33:57 +0700</t>
+  </si>
+  <si>
+    <t>Yêu cầu hỗ trợ kỹ thuật về sản phẩm Tivi thông minh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kính gửi NNY,
+Tivi thông minh của tôi (mã SKU: TIVI-2024) gặp lỗi không thể kết nối mạng
+Wifi dù tín hiệu mạng vẫn ổn định.
+Ngày mua: 05/09/2023
+Mã đơn hàng: DH12002
+Rất mong quý công ty kiểm tra và hỗ trợ cách khắc phục. Xin vui lòng liên
+hệ với tôi qua email hoặc số điện thoại 0901234569.
 Trân trọng,
+SĐT: 0901234569
 </t>
   </si>
   <si>
     <t>5</t>
   </si>
   <si>
-    <t xml:space="preserve">Kính gửi bộ phận hỗ trợ,
-Tôi là Chung Nguyễn. Tôi vừa mua sản phẩm Máy Hút Bụi Cầm Tay từ hệ thống của quý công ty và gặp phải một số vấn đề trong quá trình thanh toán như sau:
-Khi tôi thực hiện thanh toán cho đơn hàng máy hút bụi, hệ thống báo lỗi và không cho phép tôi hoàn tất giao dịch. Tôi đã thử thanh toán bằng nhiều phương thức khác nhau (thẻ tín dụng, ví điện tử), nhưng đều gặp phải tình trạng tương tự. Do đó, tôi không thể xác nhận đơn hàng và không nhận được thông tin xác nhận nào từ quý công ty.
-Ngày mua hàng: 18/10/2024
-Mã đơn hàng: 18259526
-Tôi mong nhận được sự hỗ trợ từ quý công ty để giải quyết vấn đề này càng sớm càng tốt, để tôi có thể hoàn tất đơn hàng của mình.
-Rất mong nhận được phản hồi từ quý công ty.
+    <t>Mon, 28 Oct 2024 12:33:09 +0700</t>
+  </si>
+  <si>
+    <t>"Thu Đông Phạm" &lt;imthudong@gmail.com&gt;</t>
+  </si>
+  <si>
+    <t>Thu Đông Phạm</t>
+  </si>
+  <si>
+    <t>imthudong@gmail.com</t>
+  </si>
+  <si>
+    <t>Yêu cầu hỗ trợ kỹ thuật về sản phẩm Máy hút bụi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kính gửi NNY,
+Sản phẩm Máy hút bụi tôi mua gần đây (mã SKU: MHB-2024) gặp vấn đề với khả
+năng hút bụi kém. Tôi đã kiểm tra bộ lọc và các phần khác, nhưng tình trạng
+không cải thiện.
+Ngày mua: 20/09/2023
+Mã đơn hàng: DH11001
+Vui lòng hỗ trợ hướng dẫn cách xử lý. Quý công ty có thể liên hệ qua số
+điện thoại 0987654322 hoặc email này.
 Trân trọng,
+SĐT: 0987654322
+-- 
+*Pham Truong Thu Dong*
+University of Economics and Law (VNU - HCMC)
+Faculty of Information System
+Phone: 0842456510
+Email: imthudong@gmail.com
 </t>
   </si>
   <si>
@@ -210,7 +235,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Bình thường" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -512,17 +537,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
       <selection activeCell="A2" sqref="A2 A2:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="6" width="9.109375" customWidth="1"/>
-    <col min="7" max="7" width="69.44140625" customWidth="1"/>
+    <col min="1" max="6" width="9.140625" customWidth="1"/>
+    <col min="7" max="7" width="69.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -548,7 +573,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="409.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="409.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -564,115 +589,118 @@
       <c r="E2" t="s">
         <v>12</v>
       </c>
+      <c r="F2" t="s">
+        <v>13</v>
+      </c>
       <c r="G2" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="409.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="409.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="345.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>29</v>
       </c>
+      <c r="H5" t="s">
+        <v>37</v>
+      </c>
     </row>
-    <row r="3" spans="1:8" ht="409.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="409.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" t="s">
-        <v>23</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="345.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" t="s">
-        <v>19</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="216" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" ht="216" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="C6" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="D6" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="E6" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="F6" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>29</v>
+        <v>36</v>
+      </c>
+      <c r="H6" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
